--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406E4EE1-F44D-43DC-B8A1-72E2FCFFE808}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47B1065-A71C-43F9-A0B2-0217EBF027FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
   <si>
     <t>Task</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Access DB Migration - BIC CAMERA - 1</t>
+  </si>
+  <si>
+    <t>Analyze DB Migration for without Form DB</t>
+  </si>
+  <si>
+    <t>Help Balaji San for PL Tracking Sheet SONY</t>
   </si>
 </sst>
 </file>
@@ -580,7 +586,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1011,25 +1017,41 @@
       <c r="E20" s="4">
         <v>1</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>3</v>
+      <c r="F20" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="A21" s="1">
+        <v>24</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44133</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="A22" s="1">
+        <v>25</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44133</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47B1065-A71C-43F9-A0B2-0217EBF027FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04C5F5C-7C89-45FE-B4CD-D0EFA155CA4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
+    <sheet name="NOV-2020" sheetId="11" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="27">
   <si>
     <t>Task</t>
   </si>
@@ -100,6 +101,12 @@
   </si>
   <si>
     <t>Help Balaji San for PL Tracking Sheet SONY</t>
+  </si>
+  <si>
+    <t>Changes completed in Bic_Report_soukatsu Project</t>
+  </si>
+  <si>
+    <t>Set up file created for BIC CAMERA Module</t>
   </si>
 </sst>
 </file>
@@ -585,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1107,4 +1114,92 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5498BFB-CF10-4DEC-BC3C-383954428206}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44137</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44138</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04C5F5C-7C89-45FE-B4CD-D0EFA155CA4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931334BD-1E23-4D5B-A9DC-7A4CA9008E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="29">
   <si>
     <t>Task</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>Set up file created for BIC CAMERA Module</t>
+  </si>
+  <si>
+    <t>Analysis Bic Report Ivc</t>
+  </si>
+  <si>
+    <t>Working Bic Report Ivc</t>
   </si>
 </sst>
 </file>
@@ -592,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1118,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5498BFB-CF10-4DEC-BC3C-383954428206}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1199,6 +1205,336 @@
       </c>
       <c r="G3" s="1"/>
     </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44139</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44140</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44141</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44144</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44145</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931334BD-1E23-4D5B-A9DC-7A4CA9008E32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379D0FF1-1D31-480D-A0A8-A32D7A5EF95C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="29">
   <si>
     <t>Task</t>
   </si>
@@ -1127,7 +1127,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1237,7 +1237,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="4">
         <v>0.1</v>
@@ -1311,30 +1311,66 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44146</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44147</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44148</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
@@ -1342,7 +1378,6 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379D0FF1-1D31-480D-A0A8-A32D7A5EF95C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2E64D3-D1B3-4236-B2E3-D40C54D7AADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="31">
   <si>
     <t>Task</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Working Bic Report Ivc</t>
+  </si>
+  <si>
+    <t>MS Access Program Issue fix</t>
+  </si>
+  <si>
+    <t>Bic_Report_soukatsu</t>
   </si>
 </sst>
 </file>
@@ -252,7 +258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -280,6 +286,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1127,7 +1136,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1374,38 +1383,87 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44151</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44152</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44153</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44154</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2E64D3-D1B3-4236-B2E3-D40C54D7AADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B723C7A-49BE-4200-BEFB-A0EBC0432425}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="32">
   <si>
     <t>Task</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Bic_Report_soukatsu</t>
+  </si>
+  <si>
+    <t>Best_Report_Ivc</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1139,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1467,21 +1470,45 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44155</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44158</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B723C7A-49BE-4200-BEFB-A0EBC0432425}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61196C56-621E-4CE6-9BE3-208E0F691A87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="37">
   <si>
     <t>Task</t>
   </si>
@@ -122,6 +122,21 @@
   </si>
   <si>
     <t>Best_Report_Ivc</t>
+  </si>
+  <si>
+    <t>nMAVAR</t>
+  </si>
+  <si>
+    <t>nMAVAR Project issue</t>
+  </si>
+  <si>
+    <t>Best_Report_Ivc Latest DB issue fixed</t>
+  </si>
+  <si>
+    <t>Bic_Report_soukatsu Latest DB issue fixed</t>
+  </si>
+  <si>
+    <t>Coordinate SONIA issue</t>
   </si>
 </sst>
 </file>
@@ -261,7 +276,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -292,6 +307,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1139,7 +1157,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1512,39 +1530,87 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44159</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44160</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44161</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44162</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61196C56-621E-4CE6-9BE3-208E0F691A87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C90518-09CC-4F20-9B5B-5F3CCBBF7CE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="38">
   <si>
     <t>Task</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Coordinate SONIA issue</t>
+  </si>
+  <si>
+    <t>Best_Report_Ivc Latest DB Working</t>
   </si>
 </sst>
 </file>
@@ -1156,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5498BFB-CF10-4DEC-BC3C-383954428206}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1614,18 +1617,27 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="A22" s="1">
+        <v>30</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44165</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C90518-09CC-4F20-9B5B-5F3CCBBF7CE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D95CFC-3749-4A3D-AC97-6991F5C14A12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
     <sheet name="NOV-2020" sheetId="11" r:id="rId2"/>
+    <sheet name="DEC-2020" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="42">
   <si>
     <t>Task</t>
   </si>
@@ -140,6 +141,18 @@
   </si>
   <si>
     <t>Best_Report_Ivc Latest DB Working</t>
+  </si>
+  <si>
+    <t>Support SONIA Project</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>Prepare issue and requirement document</t>
+  </si>
+  <si>
+    <t>Discussion with japan team regarding Best_Report_Ivc &amp; Bic_Report_Soukatsu</t>
   </si>
 </sst>
 </file>
@@ -1159,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5498BFB-CF10-4DEC-BC3C-383954428206}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1629,9 +1642,11 @@
       <c r="D22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="13" t="s">
-        <v>3</v>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -1736,4 +1751,412 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B659DD37-F437-446D-94F2-76BC2ACBCC75}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44166</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44166</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44167</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44168</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44168</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44169</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44172</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D95CFC-3749-4A3D-AC97-6991F5C14A12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCA49A5-56A2-42F6-9F7E-28F2EA3C55B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="42">
   <si>
     <t>Task</t>
   </si>
@@ -1758,7 +1758,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1933,47 +1933,95 @@
         <v>30</v>
       </c>
       <c r="E8" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44173</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4">
         <v>0.5</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44174</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44175</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44176</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCA49A5-56A2-42F6-9F7E-28F2EA3C55B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7E072D-E669-4477-BAAD-B58627102309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="45">
   <si>
     <t>Task</t>
   </si>
@@ -153,6 +153,15 @@
   </si>
   <si>
     <t>Discussion with japan team regarding Best_Report_Ivc &amp; Bic_Report_Soukatsu</t>
+  </si>
+  <si>
+    <t>Mr_Max_Import Issue worked</t>
+  </si>
+  <si>
+    <t>STRM_Import issue working</t>
+  </si>
+  <si>
+    <t>Bic_Report_soukatsu issue fixed</t>
   </si>
 </sst>
 </file>
@@ -1757,8 +1766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B659DD37-F437-446D-94F2-76BC2ACBCC75}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2025,57 +2034,129 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44179</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44180</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44181</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44181</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44182</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44183</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7E072D-E669-4477-BAAD-B58627102309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8014DBBA-E6F4-4BF2-9183-0F2999E917F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="53">
   <si>
     <t>Task</t>
   </si>
@@ -162,6 +162,30 @@
   </si>
   <si>
     <t>Bic_Report_soukatsu issue fixed</t>
+  </si>
+  <si>
+    <t>STRM_Import issue checking</t>
+  </si>
+  <si>
+    <t>Performance issue checking MrMax_Import</t>
+  </si>
+  <si>
+    <t>Muji Store</t>
+  </si>
+  <si>
+    <t>refresh the application</t>
+  </si>
+  <si>
+    <t>Functional issue informed elaya san in Bic_Report_soukatsu Project</t>
+  </si>
+  <si>
+    <t>KT Given to Entire team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing issue </t>
+  </si>
+  <si>
+    <t>Leave</t>
   </si>
 </sst>
 </file>
@@ -1766,13 +1790,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B659DD37-F437-446D-94F2-76BC2ACBCC75}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:F18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -2160,109 +2185,241 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44186</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44187</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44187</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44187</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="10">
+        <v>44188</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44189</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="10">
+        <v>44190</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" s="10">
+        <v>44190</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27" s="10">
+        <v>44193</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="10">
+        <v>44194</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" s="10">
+        <v>44195</v>
+      </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="B30" s="10">
+        <v>44196</v>
+      </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8014DBBA-E6F4-4BF2-9183-0F2999E917F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8F612F-3EE6-4E30-9A26-E0174880CC7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
     <sheet name="NOV-2020" sheetId="11" r:id="rId2"/>
     <sheet name="DEC-2020" sheetId="12" r:id="rId3"/>
+    <sheet name="JAN-2021" sheetId="14" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="56">
   <si>
     <t>Task</t>
   </si>
@@ -186,6 +187,15 @@
   </si>
   <si>
     <t>Leave</t>
+  </si>
+  <si>
+    <t>Issue fixing</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>GitHub source control</t>
   </si>
 </sst>
 </file>
@@ -1790,8 +1800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B659DD37-F437-446D-94F2-76BC2ACBCC75}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2445,4 +2455,101 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A94DFD-91B8-4857-99D0-BFDE93A240BA}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44200</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44201</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8F612F-3EE6-4E30-9A26-E0174880CC7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6B9D3E-90EB-4DCC-A072-C0591CC255DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="60">
   <si>
     <t>Task</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>GitHub source control</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>YouTube Private Video</t>
+  </si>
+  <si>
+    <t>Change request</t>
+  </si>
+  <si>
+    <t>Unable create Private video list</t>
   </si>
 </sst>
 </file>
@@ -335,7 +347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -369,6 +381,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1801,7 +1818,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2459,42 +2476,42 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A94DFD-91B8-4857-99D0-BFDE93A240BA}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2541,13 +2558,357 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44202</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44203</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44204</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44207</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44208</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44209</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44214</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44209</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6B9D3E-90EB-4DCC-A072-C0591CC255DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF3F7E9-A8DC-4691-A3B0-27221D6ED024}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="61">
   <si>
     <t>Task</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Unable create Private video list</t>
+  </si>
+  <si>
+    <t>Bug fixing</t>
   </si>
 </sst>
 </file>
@@ -2479,7 +2482,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2705,7 +2708,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10">
-        <v>44209</v>
+        <v>44215</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>47</v>
@@ -2714,29 +2717,53 @@
         <v>57</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="12" t="s">
-        <v>5</v>
+      <c r="F11" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44216</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44216</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF3F7E9-A8DC-4691-A3B0-27221D6ED024}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582518F2-84FE-4B4C-9948-412346311A8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="62">
   <si>
     <t>Task</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Bug fixing</t>
+  </si>
+  <si>
+    <t>System HD,OS Software Update</t>
   </si>
 </sst>
 </file>
@@ -2482,7 +2485,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2767,48 +2770,104 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44217</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44218</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>57</v>
+      </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44221</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44223</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44225</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582518F2-84FE-4B4C-9948-412346311A8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DD187B-89FB-44D7-BDFF-A06427942ACE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
     <sheet name="NOV-2020" sheetId="11" r:id="rId2"/>
     <sheet name="DEC-2020" sheetId="12" r:id="rId3"/>
     <sheet name="JAN-2021" sheetId="14" r:id="rId4"/>
+    <sheet name="FEB-2021" sheetId="15" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="65">
   <si>
     <t>Task</t>
   </si>
@@ -214,6 +215,15 @@
   </si>
   <si>
     <t>System HD,OS Software Update</t>
+  </si>
+  <si>
+    <t>NMVAR</t>
+  </si>
+  <si>
+    <t>Functional checking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google drive </t>
   </si>
 </sst>
 </file>
@@ -2484,8 +2494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A94DFD-91B8-4857-99D0-BFDE93A240BA}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2999,4 +3009,978 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE48016-C14F-432A-B523-39C49937726D}">
+  <dimension ref="A1:G90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44228</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44229</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44230</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44231</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44232</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44235</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44235</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44236</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44237</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44238</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44239</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DD187B-89FB-44D7-BDFF-A06427942ACE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499CBEA0-5ADD-421C-865C-F8A11A555D45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="70">
   <si>
     <t>Task</t>
   </si>
@@ -224,6 +224,21 @@
   </si>
   <si>
     <t xml:space="preserve">Google drive </t>
+  </si>
+  <si>
+    <t>Able to login and google drive files</t>
+  </si>
+  <si>
+    <t>Active Report checking</t>
+  </si>
+  <si>
+    <t>MrMax_Wrn</t>
+  </si>
+  <si>
+    <t>New Request</t>
+  </si>
+  <si>
+    <t>Weekly Revenue</t>
   </si>
 </sst>
 </file>
@@ -271,7 +286,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3016,16 +3031,17 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3279,66 +3295,147 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44242</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44243</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" s="13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44244</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>64</v>
+      </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44245</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44246</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44249</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44250</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499CBEA0-5ADD-421C-865C-F8A11A555D45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10FA896-C585-402E-9B86-EAABB448F8CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="71">
   <si>
     <t>Task</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>Weekly Revenue</t>
+  </si>
+  <si>
+    <t>Code Merge and Deployment</t>
   </si>
 </sst>
 </file>
@@ -3030,8 +3033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE48016-C14F-432A-B523-39C49937726D}">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3439,39 +3442,87 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44251</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44251</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44252</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>44252</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10FA896-C585-402E-9B86-EAABB448F8CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42D5018-41EC-42BA-B26D-88255A5BCDDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="71">
   <si>
     <t>Task</t>
   </si>
@@ -3034,7 +3034,7 @@
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:F23"/>
+      <selection activeCell="E24" sqref="E24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3526,12 +3526,24 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44253</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42D5018-41EC-42BA-B26D-88255A5BCDDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FA191E-283F-46DD-B4CE-1BBB2BD7D3E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="DEC-2020" sheetId="12" r:id="rId3"/>
     <sheet name="JAN-2021" sheetId="14" r:id="rId4"/>
     <sheet name="FEB-2021" sheetId="15" r:id="rId5"/>
+    <sheet name="MAR-2021" sheetId="16" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="77">
   <si>
     <t>Task</t>
   </si>
@@ -242,6 +243,24 @@
   </si>
   <si>
     <t>Code Merge and Deployment</t>
+  </si>
+  <si>
+    <t>App and DB clean up Demo3</t>
+  </si>
+  <si>
+    <t>Testing and Documentation</t>
+  </si>
+  <si>
+    <t>Issue fixing and Deployment</t>
+  </si>
+  <si>
+    <t>Application and database clean up</t>
+  </si>
+  <si>
+    <t>Admin page documentation</t>
+  </si>
+  <si>
+    <t>Attend Japan team meeting</t>
   </si>
 </sst>
 </file>
@@ -381,7 +400,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -421,6 +440,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3033,8 +3053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE48016-C14F-432A-B523-39C49937726D}">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4143,4 +4163,503 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8384DEB-BB5E-4F46-9A0E-CF5213C24232}">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44256</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44257</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44258</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44259</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44260</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44263</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44263</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44264</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44264</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44265</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44265</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44266</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32FA191E-283F-46DD-B4CE-1BBB2BD7D3E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60B94CC-6DA9-4A96-921C-555F25719EC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="77">
   <si>
     <t>Task</t>
   </si>
@@ -440,7 +440,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4170,7 +4172,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E13" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4453,8 +4455,8 @@
       <c r="D13" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="21">
-        <v>0.4</v>
+      <c r="E13" s="4">
+        <v>0.3</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>3</v>
@@ -4462,21 +4464,45 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44267</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44270</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60B94CC-6DA9-4A96-921C-555F25719EC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2E3E5A-A98F-4E0F-834D-1A1CA811E113}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="78">
   <si>
     <t>Task</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>Attend Japan team meeting</t>
+  </si>
+  <si>
+    <t>New changes &amp; Bug Fixing</t>
   </si>
 </sst>
 </file>
@@ -4171,8 +4174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8384DEB-BB5E-4F46-9A0E-CF5213C24232}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4506,55 +4509,103 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44271</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44272</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44273</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44274</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44277</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44278</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2E3E5A-A98F-4E0F-834D-1A1CA811E113}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D17390-62F2-46CB-A6E8-65716218C776}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="78">
   <si>
     <t>Task</t>
   </si>
@@ -4174,8 +4174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8384DEB-BB5E-4F46-9A0E-CF5213C24232}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4522,7 +4522,9 @@
         <v>77</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
@@ -4539,7 +4541,9 @@
         <v>77</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
@@ -4556,7 +4560,9 @@
         <v>77</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -4573,7 +4579,9 @@
         <v>77</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
@@ -4590,7 +4598,9 @@
         <v>77</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -4607,61 +4617,123 @@
         <v>77</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44279</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>44280</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44281</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10">
+        <v>44284</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>44285</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10">
+        <v>44286</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D17390-62F2-46CB-A6E8-65716218C776}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDB92B5-1F18-41FC-83A1-694409AFE8DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="JAN-2021" sheetId="14" r:id="rId4"/>
     <sheet name="FEB-2021" sheetId="15" r:id="rId5"/>
     <sheet name="MAR-2021" sheetId="16" r:id="rId6"/>
+    <sheet name="APR-2021" sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="83">
   <si>
     <t>Task</t>
   </si>
@@ -264,6 +265,21 @@
   </si>
   <si>
     <t>New changes &amp; Bug Fixing</t>
+  </si>
+  <si>
+    <t>SOINA</t>
+  </si>
+  <si>
+    <t>Homac Project New Changes (Homac,Homac_Search,Homac_Import)</t>
+  </si>
+  <si>
+    <t>Homac Project New Changes (Homac_Search)</t>
+  </si>
+  <si>
+    <t>Japanese file name error correction</t>
+  </si>
+  <si>
+    <t>Folder management screen - Tree structure view</t>
   </si>
 </sst>
 </file>
@@ -4174,8 +4190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8384DEB-BB5E-4F46-9A0E-CF5213C24232}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:F27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4183,7 +4199,7 @@
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -4725,12 +4741,14 @@
         <v>44286</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="1"/>
+        <v>79</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.3</v>
+      </c>
       <c r="F27" s="13" t="s">
         <v>3</v>
       </c>
@@ -4811,4 +4829,490 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBEE8AC-BA90-42E8-A496-94E7CF75A770}">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44287</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44257</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44260</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44260</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44262</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44263</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44264</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44267</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44268</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDB92B5-1F18-41FC-83A1-694409AFE8DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B25BE85-3D78-43A4-BEF5-EEC4A0754DB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="86">
   <si>
     <t>Task</t>
   </si>
@@ -280,6 +280,15 @@
   </si>
   <si>
     <t>Folder management screen - Tree structure view</t>
+  </si>
+  <si>
+    <t>Muji Store issue fixing</t>
+  </si>
+  <si>
+    <t>Issue fixing in Reports</t>
+  </si>
+  <si>
+    <t>Folder Tree structure - Index page</t>
   </si>
 </sst>
 </file>
@@ -4836,7 +4845,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5057,9 +5066,15 @@
       <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="10">
+        <v>44269</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="E11" s="21"/>
       <c r="F11" s="13"/>
       <c r="G11" s="1"/>
@@ -5068,9 +5083,15 @@
       <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="19"/>
+      <c r="B12" s="10">
+        <v>44270</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="12"/>
       <c r="G12" s="1"/>
@@ -5079,9 +5100,15 @@
       <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="19"/>
+      <c r="B13" s="10">
+        <v>44271</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>84</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="13"/>
       <c r="G13" s="1"/>
@@ -5090,9 +5117,15 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="19"/>
+      <c r="B14" s="10">
+        <v>44274</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="13"/>
       <c r="G14" s="1"/>
@@ -5101,9 +5134,15 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="10">
+        <v>44275</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="12"/>
       <c r="G15" s="1"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B25BE85-3D78-43A4-BEF5-EEC4A0754DB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BE44D4-AB95-48B3-AAE6-869C841985E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="87">
   <si>
     <t>Task</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>Folder Tree structure - Index page</t>
+  </si>
+  <si>
+    <t>Issue fixing in Reports - checking</t>
   </si>
 </sst>
 </file>
@@ -4845,7 +4848,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5151,9 +5154,15 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="10">
+        <v>44276</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="13"/>
       <c r="G16" s="1"/>
@@ -5162,9 +5171,15 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="B17" s="10">
+        <v>44277</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="E17" s="1"/>
       <c r="F17" s="13"/>
       <c r="G17" s="1"/>
@@ -5173,9 +5188,15 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="10">
+        <v>44278</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="E18" s="1"/>
       <c r="F18" s="13"/>
       <c r="G18" s="1"/>
@@ -5184,9 +5205,15 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="10">
+        <v>44278</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="E19" s="1"/>
       <c r="F19" s="13"/>
       <c r="G19" s="1"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BE44D4-AB95-48B3-AAE6-869C841985E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA81B34-E7FF-467E-B6F4-586D9F59010A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="88">
   <si>
     <t>Task</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>Issue fixing in Reports - checking</t>
+  </si>
+  <si>
+    <t>Sick Leave</t>
   </si>
 </sst>
 </file>
@@ -4848,7 +4851,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5222,9 +5225,15 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="B20" s="10">
+        <v>44281</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="F20" s="13"/>
       <c r="G20" s="1"/>
@@ -5233,9 +5242,13 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="10">
+        <v>44282</v>
+      </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="19" t="s">
+        <v>87</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="13"/>
       <c r="G21" s="1"/>
@@ -5244,9 +5257,15 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="B22" s="10">
+        <v>44283</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="13"/>
       <c r="G22" s="1"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA81B34-E7FF-467E-B6F4-586D9F59010A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91036FC5-80B4-48E1-A7BA-149DD9FEAC10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="88">
   <si>
     <t>Task</t>
   </si>
@@ -4850,8 +4850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBEE8AC-BA90-42E8-A496-94E7CF75A770}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5274,9 +5274,15 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="B23" s="10">
+        <v>44284</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="13"/>
       <c r="G23" s="1"/>
@@ -5285,9 +5291,15 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="B24" s="10">
+        <v>44285</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>85</v>
+      </c>
       <c r="E24" s="1"/>
       <c r="F24" s="13"/>
       <c r="G24" s="1"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91036FC5-80B4-48E1-A7BA-149DD9FEAC10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981C0B35-4555-45FB-8167-53DEA180AD3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="FEB-2021" sheetId="15" r:id="rId5"/>
     <sheet name="MAR-2021" sheetId="16" r:id="rId6"/>
     <sheet name="APR-2021" sheetId="17" r:id="rId7"/>
+    <sheet name="MAY-2021" sheetId="18" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="90">
   <si>
     <t>Task</t>
   </si>
@@ -295,6 +296,12 @@
   </si>
   <si>
     <t>Sick Leave</t>
+  </si>
+  <si>
+    <t>Stream Server Import</t>
+  </si>
+  <si>
+    <t>Bug Fixing</t>
   </si>
 </sst>
 </file>
@@ -4205,8 +4212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8384DEB-BB5E-4F46-9A0E-CF5213C24232}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4850,7 +4857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBEE8AC-BA90-42E8-A496-94E7CF75A770}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -5412,4 +5419,220 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6CB570-938C-47FD-8C65-D1DC01B394DE}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44319</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44320</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44321</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44322</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44323</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44326</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44327</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44328</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44329</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44333</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981C0B35-4555-45FB-8167-53DEA180AD3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DB8D45-549C-4EA8-A7C6-1E49858D0CCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="95">
   <si>
     <t>Task</t>
   </si>
@@ -302,6 +302,21 @@
   </si>
   <si>
     <t>Bug Fixing</t>
+  </si>
+  <si>
+    <t>Analyze Japan team requirement, Prepare Estimation and requirement Document</t>
+  </si>
+  <si>
+    <t>Anyone can see any video if the ip address is registered under subnet mgt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Three table Added </t>
+  </si>
+  <si>
+    <t>map the entire things (store, store group, ip address, server and video) based on FOLDER</t>
+  </si>
+  <si>
+    <t>Support Team Members</t>
   </si>
 </sst>
 </file>
@@ -398,7 +413,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -434,6 +449,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -441,7 +467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -483,6 +509,16 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4213,7 +4249,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:G27"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4857,8 +4893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBEE8AC-BA90-42E8-A496-94E7CF75A770}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5423,10 +5459,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6CB570-938C-47FD-8C65-D1DC01B394DE}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5475,8 +5511,12 @@
       <c r="D2" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="12"/>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
@@ -5492,8 +5532,12 @@
       <c r="D3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="12"/>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
@@ -5509,8 +5553,12 @@
       <c r="D4" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="13"/>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
@@ -5526,8 +5574,12 @@
       <c r="D5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="13"/>
+      <c r="E5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7">
@@ -5544,7 +5596,9 @@
         <v>52</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="12"/>
+      <c r="F6" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
@@ -5560,9 +5614,12 @@
       <c r="D7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="19">
@@ -5577,9 +5634,12 @@
       <c r="D8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="1"/>
+      <c r="E8" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="19">
@@ -5594,9 +5654,15 @@
       <c r="D9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="1"/>
+      <c r="E9" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="19">
@@ -5611,9 +5677,15 @@
       <c r="D10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="1"/>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="19">
@@ -5628,9 +5700,250 @@
       <c r="D11" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44334</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44335</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="19">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44336</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44337</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44340</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44341</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44341</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44342</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="22">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44343</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="22">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44344</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44344</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="22">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>44347</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DB8D45-549C-4EA8-A7C6-1E49858D0CCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D31DB71-FDD4-49F3-97B9-A064BA310258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="MAR-2021" sheetId="16" r:id="rId6"/>
     <sheet name="APR-2021" sheetId="17" r:id="rId7"/>
     <sheet name="MAY-2021" sheetId="18" r:id="rId8"/>
+    <sheet name="JUN-2021" sheetId="19" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="98">
   <si>
     <t>Task</t>
   </si>
@@ -317,6 +318,15 @@
   </si>
   <si>
     <t>Support Team Members</t>
+  </si>
+  <si>
+    <t>Store Number Add in Store Master table</t>
+  </si>
+  <si>
+    <t>Stream Server Import Add Store Number</t>
+  </si>
+  <si>
+    <t>Subnet Number changes</t>
   </si>
 </sst>
 </file>
@@ -467,7 +477,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -511,14 +521,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5459,10 +5466,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6CB570-938C-47FD-8C65-D1DC01B394DE}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5472,7 +5479,7 @@
     <col min="4" max="4" width="62.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -5620,6 +5627,7 @@
       <c r="F7" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="19">
@@ -5640,6 +5648,7 @@
       <c r="F8" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="19">
@@ -5727,6 +5736,7 @@
       <c r="F12" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="19">
@@ -5747,6 +5757,7 @@
       <c r="F13" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="19">
@@ -5767,9 +5778,10 @@
       <c r="F14" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="22">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
       <c r="B15" s="10">
@@ -5787,9 +5799,10 @@
       <c r="F15" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="22">
+      <c r="A16" s="19">
         <v>15</v>
       </c>
       <c r="B16" s="10">
@@ -5798,18 +5811,19 @@
       <c r="C16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="4">
         <v>0.7</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="22">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
       <c r="B17" s="10">
@@ -5818,7 +5832,7 @@
       <c r="C17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="19" t="s">
         <v>91</v>
       </c>
       <c r="E17" s="4">
@@ -5827,9 +5841,10 @@
       <c r="F17" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="22">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="19">
         <v>17</v>
       </c>
       <c r="B18" s="10">
@@ -5841,15 +5856,16 @@
       <c r="D18" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="20">
         <v>0.2</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="22">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="19">
         <v>18</v>
       </c>
       <c r="B19" s="10">
@@ -5861,15 +5877,16 @@
       <c r="D19" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="20">
         <v>0.5</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="22">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="19">
         <v>19</v>
       </c>
       <c r="B20" s="10">
@@ -5881,15 +5898,16 @@
       <c r="D20" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="20">
         <v>0.9</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="22">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="19">
         <v>20</v>
       </c>
       <c r="B21" s="10">
@@ -5907,9 +5925,10 @@
       <c r="F21" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="22">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="19">
         <v>21</v>
       </c>
       <c r="B22" s="10">
@@ -5927,9 +5946,10 @@
       <c r="F22" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="22">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="19">
         <v>22</v>
       </c>
       <c r="B23" s="10">
@@ -5941,9 +5961,372 @@
       <c r="D23" s="19" t="s">
         <v>89</v>
       </c>
+      <c r="E23" s="1"/>
       <c r="F23" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="19">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44347</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B3C2CE-654F-47A3-848A-F1C3D285380E}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44348</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44349</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44350</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44351</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44354</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44355</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44356</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44357</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44358</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44361</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D31DB71-FDD4-49F3-97B9-A064BA310258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087F2EE2-0CEC-4D3A-AC0C-D8C144693760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="100">
   <si>
     <t>Task</t>
   </si>
@@ -327,6 +327,12 @@
   </si>
   <si>
     <t>Subnet Number changes</t>
+  </si>
+  <si>
+    <t>Without Logout able see video update session information</t>
+  </si>
+  <si>
+    <t>Convert Int16 to Int32 Entire Application</t>
   </si>
 </sst>
 </file>
@@ -477,7 +483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -527,6 +533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5998,10 +6005,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B3C2CE-654F-47A3-848A-F1C3D285380E}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E13" sqref="E13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6248,30 +6255,66 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44362</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44362</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44363</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
@@ -6328,6 +6371,15 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087F2EE2-0CEC-4D3A-AC0C-D8C144693760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC112C8D-9EDB-4667-BAD0-AC13B602A38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="104">
   <si>
     <t>Task</t>
   </si>
@@ -333,6 +333,18 @@
   </si>
   <si>
     <t>Convert Int16 to Int32 Entire Application</t>
+  </si>
+  <si>
+    <t>Old source code go through</t>
+  </si>
+  <si>
+    <t>Folder Management</t>
+  </si>
+  <si>
+    <t>Estimation for new changes with old souce finding functional issues</t>
+  </si>
+  <si>
+    <t>Folder Management Bug fixing</t>
   </si>
 </sst>
 </file>
@@ -483,7 +495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -533,7 +545,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6007,8 +6018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B3C2CE-654F-47A3-848A-F1C3D285380E}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:F13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6267,7 +6278,7 @@
       <c r="D12" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="4">
         <v>0.4</v>
       </c>
       <c r="F12" s="13" t="s">
@@ -6318,66 +6329,150 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44364</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44365</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44368</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44369</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44370</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44371</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44372</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC112C8D-9EDB-4667-BAD0-AC13B602A38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9600158B-2C79-4AE7-8B9E-A262DCD833E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="105">
   <si>
     <t>Task</t>
   </si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>Folder Management Bug fixing</t>
+  </si>
+  <si>
+    <t>Bug Fixing (Remove unwanted columns)</t>
   </si>
 </sst>
 </file>
@@ -6016,10 +6019,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B3C2CE-654F-47A3-848A-F1C3D285380E}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6475,6 +6478,48 @@
       </c>
       <c r="G21" s="1"/>
     </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="19">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44375</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="19">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10">
+        <v>44376</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9600158B-2C79-4AE7-8B9E-A262DCD833E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05441E8-D65C-4157-A06F-B7AF48BD6EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="APR-2021" sheetId="17" r:id="rId7"/>
     <sheet name="MAY-2021" sheetId="18" r:id="rId8"/>
     <sheet name="JUN-2021" sheetId="19" r:id="rId9"/>
+    <sheet name="JUL-2021" sheetId="21" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="106">
   <si>
     <t>Task</t>
   </si>
@@ -348,6 +349,9 @@
   </si>
   <si>
     <t>Bug Fixing (Remove unwanted columns)</t>
+  </si>
+  <si>
+    <t>Stream server import changes</t>
   </si>
 </sst>
 </file>
@@ -1389,6 +1393,113 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A08316-8619-42BE-A30C-769E3C87CF0F}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44378</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44379</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44382</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5498BFB-CF10-4DEC-BC3C-383954428206}">
   <dimension ref="A1:G33"/>
@@ -6019,10 +6130,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B3C2CE-654F-47A3-848A-F1C3D285380E}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6520,6 +6631,27 @@
       </c>
       <c r="G23" s="1"/>
     </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="19">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44377</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05441E8-D65C-4157-A06F-B7AF48BD6EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBBA358-5226-4D91-B334-19906175E91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="115">
   <si>
     <t>Task</t>
   </si>
@@ -352,6 +352,34 @@
   </si>
   <si>
     <t>Stream server import changes</t>
+  </si>
+  <si>
+    <t>Store group code review</t>
+  </si>
+  <si>
+    <t>CDN  convert to local</t>
+  </si>
+  <si>
+    <t>Video all message - 読み込みエラー   = Video not playing
+配信の完了しているサーバーがありません。= Subnet not available or server not accessible - Completed Need to test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feedback - IP Address displayed in writer name column </t>
+  </si>
+  <si>
+    <t>Stream Server Logs - Remove Server IP Address/Server Name column in Export or hide Export button</t>
+  </si>
+  <si>
+    <t>Stream Server Import - Change second line - All fields are mandatory</t>
+  </si>
+  <si>
+    <t>Code review for completed pages</t>
+  </si>
+  <si>
+    <t>Role Access for Stream server and view log</t>
+  </si>
+  <si>
+    <t>Confirmation message issue fixed in Store,Subnet and Store group</t>
   </si>
 </sst>
 </file>
@@ -448,7 +476,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -495,6 +523,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -502,7 +539,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -552,6 +589,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1395,10 +1436,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A08316-8619-42BE-A30C-769E3C87CF0F}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1486,12 +1527,192 @@
         <v>47</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44382</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="120">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44383</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44383</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44383</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44383</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44384</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44384</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44385</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44385</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6132,8 +6353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B3C2CE-654F-47A3-848A-F1C3D285380E}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBBA358-5226-4D91-B334-19906175E91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4715160D-38FA-44EB-9105-567E8398B00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="118">
   <si>
     <t>Task</t>
   </si>
@@ -380,6 +380,15 @@
   </si>
   <si>
     <t>Confirmation message issue fixed in Store,Subnet and Store group</t>
+  </si>
+  <si>
+    <t>Video change Request and Approval Existing Functionality Implemented</t>
+  </si>
+  <si>
+    <t>Code review for changes</t>
+  </si>
+  <si>
+    <t>Code review for Video change Approval Existing functional</t>
   </si>
 </sst>
 </file>
@@ -476,7 +485,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -523,15 +532,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -539,7 +539,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -592,7 +592,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1436,17 +1444,17 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A08316-8619-42BE-A30C-769E3C87CF0F}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.7109375" style="25" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -1462,7 +1470,7 @@
       <c r="C1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="18" t="s">
@@ -1485,7 +1493,7 @@
       <c r="C2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="28" t="s">
         <v>105</v>
       </c>
       <c r="E2" s="4">
@@ -1497,7 +1505,7 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="10">
@@ -1506,7 +1514,7 @@
       <c r="C3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="28" t="s">
         <v>89</v>
       </c>
       <c r="E3" s="4">
@@ -1517,7 +1525,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="10">
@@ -1526,7 +1534,7 @@
       <c r="C4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="28" t="s">
         <v>106</v>
       </c>
       <c r="E4" s="4">
@@ -1537,7 +1545,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="10">
@@ -1546,7 +1554,7 @@
       <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="28" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="4">
@@ -1556,8 +1564,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="120">
-      <c r="A6">
+    <row r="6" spans="1:7" ht="75">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="10">
@@ -1566,7 +1574,7 @@
       <c r="C6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="26" t="s">
         <v>108</v>
       </c>
       <c r="E6" s="4">
@@ -1576,8 +1584,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="10">
@@ -1586,7 +1594,7 @@
       <c r="C7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="28" t="s">
         <v>109</v>
       </c>
       <c r="E7" s="4">
@@ -1596,8 +1604,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="10">
@@ -1606,7 +1614,7 @@
       <c r="C8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="28" t="s">
         <v>110</v>
       </c>
       <c r="E8" s="4">
@@ -1616,8 +1624,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
+    <row r="9" spans="1:7" ht="30">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="10">
@@ -1626,7 +1634,7 @@
       <c r="C9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="28" t="s">
         <v>111</v>
       </c>
       <c r="E9" s="4">
@@ -1637,7 +1645,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="10">
@@ -1646,7 +1654,7 @@
       <c r="C10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="28" t="s">
         <v>112</v>
       </c>
       <c r="E10" s="4">
@@ -1657,7 +1665,7 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="10">
@@ -1666,7 +1674,7 @@
       <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="28" t="s">
         <v>113</v>
       </c>
       <c r="E11" s="4">
@@ -1677,7 +1685,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="10">
@@ -1686,7 +1694,7 @@
       <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="28" t="s">
         <v>113</v>
       </c>
       <c r="E12" s="4">
@@ -1696,8 +1704,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="10">
@@ -1706,18 +1714,119 @@
       <c r="C13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="28" t="s">
         <v>114</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
       </c>
       <c r="F13" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44386</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44389</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44390</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44390</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44390</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4715160D-38FA-44EB-9105-567E8398B00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1D855C-293F-4C3F-9CFC-500A9E543F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="124">
   <si>
     <t>Task</t>
   </si>
@@ -389,6 +389,31 @@
   </si>
   <si>
     <t>Code review for Video change Approval Existing functional</t>
+  </si>
+  <si>
+    <t>Code Review</t>
+  </si>
+  <si>
+    <t>Muji Store Unknown Japanes issue fixed</t>
+  </si>
+  <si>
+    <t>Feedback issue without login issue fixed</t>
+  </si>
+  <si>
+    <t>User management - Video Change request user issues
+--Videos not listed in Video change request page 
+--Search button showing two times and clear button missing
+--"Unable to update with thumbnail in video change request" message showing when clicking update button in Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Screen after login timeout.display login screen after time out. Do not allow access/login if the link is directly copy-pasted.
+http://153.153.161.67/ncrmujvideodemo2/Menus
+http://153.153.161.67/ncrmujvideodemo2/Menus/InfoMenus
+http://153.153.161.67/ncrmujvideodemo2/SubnetAll</t>
+  </si>
+  <si>
+    <t>TOP screen when accessed (1st attachment)
+The screen displayed when accessing the server is the following "Folder &gt;&gt; Table of Contents" screen, so please make it same.</t>
   </si>
 </sst>
 </file>
@@ -1444,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A08316-8619-42BE-A30C-769E3C87CF0F}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1523,6 +1548,7 @@
       <c r="F3" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
@@ -1543,6 +1569,7 @@
       <c r="F4" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
@@ -1563,6 +1590,7 @@
       <c r="F5" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="75">
       <c r="A6" s="1">
@@ -1583,6 +1611,7 @@
       <c r="F6" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="30">
       <c r="A7" s="1">
@@ -1603,6 +1632,7 @@
       <c r="F7" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="1">
@@ -1623,6 +1653,7 @@
       <c r="F8" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="30">
       <c r="A9" s="1">
@@ -1643,6 +1674,7 @@
       <c r="F9" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
@@ -1663,6 +1695,7 @@
       <c r="F10" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
@@ -1683,6 +1716,7 @@
       <c r="F11" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
@@ -1703,6 +1737,7 @@
       <c r="F12" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="1">
@@ -1723,6 +1758,7 @@
       <c r="F13" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="30">
       <c r="A14" s="1">
@@ -1743,6 +1779,7 @@
       <c r="F14" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
@@ -1763,6 +1800,7 @@
       <c r="F15" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
@@ -1783,8 +1821,9 @@
       <c r="F16" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="30">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="30">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1803,9 +1842,10 @@
       <c r="F17" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="22">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="19">
         <v>17</v>
       </c>
       <c r="B18" s="10">
@@ -1823,6 +1863,217 @@
       <c r="F18" s="12" t="s">
         <v>5</v>
       </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44391</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="19">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44391</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44392</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="19">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44392</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="105">
+      <c r="A23" s="19">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>44393</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="105">
+      <c r="A24" s="19">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44396</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="60">
+      <c r="A25" s="19">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10">
+        <v>44396</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1D855C-293F-4C3F-9CFC-500A9E543F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC8B03E-0FB0-4064-AC0E-62D83EA3D767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="129">
   <si>
     <t>Task</t>
   </si>
@@ -414,6 +414,21 @@
   <si>
     <t>TOP screen when accessed (1st attachment)
 The screen displayed when accessing the server is the following "Folder &gt;&gt; Table of Contents" screen, so please make it same.</t>
+  </si>
+  <si>
+    <t>HoliDay</t>
+  </si>
+  <si>
+    <t>On clicking Update button Server Error - 404 - File or directory not found.</t>
+  </si>
+  <si>
+    <t>MJA</t>
+  </si>
+  <si>
+    <t>Document and Frame Work</t>
+  </si>
+  <si>
+    <t>Media table changes</t>
   </si>
 </sst>
 </file>
@@ -1469,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A08316-8619-42BE-A30C-769E3C87CF0F}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2012,68 +2027,236 @@
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+    <row r="26" spans="1:7" ht="60">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>44397</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="19">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10">
+        <v>44398</v>
+      </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="26"/>
+      <c r="D27" s="26" t="s">
+        <v>124</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+    <row r="28" spans="1:7" ht="30">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10">
+        <v>44399</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="A29" s="19">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10">
+        <v>44400</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10">
+        <v>44403</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10">
+        <v>44404</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10">
+        <v>44404</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC8B03E-0FB0-4064-AC0E-62D83EA3D767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40BF5C7-80F9-4150-88F4-8DDED54E7F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="132">
   <si>
     <t>Task</t>
   </si>
@@ -429,6 +429,15 @@
   </si>
   <si>
     <t>Media table changes</t>
+  </si>
+  <si>
+    <t>Angular JS learning</t>
+  </si>
+  <si>
+    <t>MujiStore DB Checking</t>
+  </si>
+  <si>
+    <t>MujiStore DB Migration</t>
   </si>
 </sst>
 </file>
@@ -1487,7 +1496,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2169,39 +2178,87 @@
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10">
+        <v>44405</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10">
+        <v>44405</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10">
+        <v>44406</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10">
+        <v>44407</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40BF5C7-80F9-4150-88F4-8DDED54E7F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96E8F0B-D333-4AA9-8239-1150DFDDBD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="MAY-2021" sheetId="18" r:id="rId8"/>
     <sheet name="JUN-2021" sheetId="19" r:id="rId9"/>
     <sheet name="JUL-2021" sheetId="21" r:id="rId10"/>
+    <sheet name="AUG-2021" sheetId="22" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="135">
   <si>
     <t>Task</t>
   </si>
@@ -438,6 +439,15 @@
   </si>
   <si>
     <t>MujiStore DB Migration</t>
+  </si>
+  <si>
+    <t>PrePare Deployment for Web Server Enviornment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application Deployment in Client Place(NCR) </t>
+  </si>
+  <si>
+    <t>Table Design</t>
   </si>
 </sst>
 </file>
@@ -1495,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A08316-8619-42BE-A30C-769E3C87CF0F}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2318,6 +2328,351 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56F7C24-044E-4AF2-8858-E92A656FF50B}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44410</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44411</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44412</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44413</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44414</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44417</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44418</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44419</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44420</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44421</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96E8F0B-D333-4AA9-8239-1150DFDDBD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8288B30-A5B7-4B5C-9FA3-6B27A38F9CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="136">
   <si>
     <t>Task</t>
   </si>
@@ -448,6 +448,9 @@
   </si>
   <si>
     <t>Table Design</t>
+  </si>
+  <si>
+    <t>Video Resolution checking</t>
   </si>
 </sst>
 </file>
@@ -2336,7 +2339,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2582,21 +2585,41 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44424</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44425</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8288B30-A5B7-4B5C-9FA3-6B27A38F9CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0987C305-67C7-4E07-A964-64D3272862F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="138">
   <si>
     <t>Task</t>
   </si>
@@ -451,6 +451,12 @@
   </si>
   <si>
     <t>Video Resolution checking</t>
+  </si>
+  <si>
+    <t>Video Resolution checking &amp; working</t>
+  </si>
+  <si>
+    <t>Video Resolution working</t>
   </si>
 </sst>
 </file>
@@ -2339,7 +2345,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2623,39 +2629,87 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44426</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44426</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44428</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44429</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="4">
+        <v>10</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0987C305-67C7-4E07-A964-64D3272862F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3802C9-EBE0-47BD-8703-BC71E68C5B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="139">
   <si>
     <t>Task</t>
   </si>
@@ -457,6 +457,9 @@
   </si>
   <si>
     <t>Video Resolution working</t>
+  </si>
+  <si>
+    <t>Bug Fixing Deployment Document pack</t>
   </si>
 </sst>
 </file>
@@ -2344,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56F7C24-044E-4AF2-8858-E92A656FF50B}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2705,7 +2708,7 @@
         <v>137</v>
       </c>
       <c r="E17" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>5</v>
@@ -2713,21 +2716,45 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44431</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44432</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3802C9-EBE0-47BD-8703-BC71E68C5B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D371BC-BE95-42D1-82F1-75BFF47CB1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="139">
   <si>
     <t>Task</t>
   </si>
@@ -2347,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56F7C24-044E-4AF2-8858-E92A656FF50B}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2758,21 +2758,43 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44433</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44434</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D371BC-BE95-42D1-82F1-75BFF47CB1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCD50FB-4C27-4689-AC72-095195AF2F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="140">
   <si>
     <t>Task</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>Bug Fixing Deployment Document pack</t>
+  </si>
+  <si>
+    <t>Server checking code walk thrrough</t>
   </si>
 </sst>
 </file>
@@ -2345,10 +2348,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56F7C24-044E-4AF2-8858-E92A656FF50B}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2796,6 +2799,44 @@
         <v>3</v>
       </c>
       <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="19">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44435</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="19">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>44438</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCD50FB-4C27-4689-AC72-095195AF2F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509D2783-E5D2-4ADB-82F8-FBDDDD2EA2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="141">
   <si>
     <t>Task</t>
   </si>
@@ -463,6 +463,9 @@
   </si>
   <si>
     <t>Server checking code walk thrrough</t>
+  </si>
+  <si>
+    <t>Application Hosting in Dev Server</t>
   </si>
 </sst>
 </file>
@@ -2348,10 +2351,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56F7C24-044E-4AF2-8858-E92A656FF50B}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2837,6 +2840,27 @@
         <v>3</v>
       </c>
       <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="19">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44439</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509D2783-E5D2-4ADB-82F8-FBDDDD2EA2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD26AF87-EE97-4A92-940F-CBD312DB2905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="JUN-2021" sheetId="19" r:id="rId9"/>
     <sheet name="JUL-2021" sheetId="21" r:id="rId10"/>
     <sheet name="AUG-2021" sheetId="22" r:id="rId11"/>
+    <sheet name="SEP-2021" sheetId="23" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="142">
   <si>
     <t>Task</t>
   </si>
@@ -466,6 +467,9 @@
   </si>
   <si>
     <t>Application Hosting in Dev Server</t>
+  </si>
+  <si>
+    <t>MujiStore Application Clean up</t>
   </si>
 </sst>
 </file>
@@ -2353,8 +2357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56F7C24-044E-4AF2-8858-E92A656FF50B}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2860,6 +2864,295 @@
       <c r="F24" s="13" t="s">
         <v>3</v>
       </c>
+      <c r="G24" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EAFE2D-2932-40F0-BB30-6CD08F169206}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44440</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44441</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44441</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="19"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="19"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="19"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="13"/>
       <c r="G24" s="1"/>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD26AF87-EE97-4A92-940F-CBD312DB2905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40582E78-6196-44E9-A86A-B30551814840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="144">
   <si>
     <t>Task</t>
   </si>
@@ -470,6 +470,12 @@
   </si>
   <si>
     <t>MujiStore Application Clean up</t>
+  </si>
+  <si>
+    <t>Deployment ,KT from QMVAR changes and Deployment changes working</t>
+  </si>
+  <si>
+    <t>Deployment changes Working(Original Media, User Name and format Quality changes)</t>
   </si>
 </sst>
 </file>
@@ -2876,7 +2882,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2977,29 +2983,59 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="12"/>
+      <c r="B5" s="10">
+        <v>44442</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="12"/>
+      <c r="B6" s="10">
+        <v>44443</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="12"/>
+      <c r="B7" s="10">
+        <v>44444</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40582E78-6196-44E9-A86A-B30551814840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD39EE1-32EB-4479-9A0D-42E33966A411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="146">
   <si>
     <t>Task</t>
   </si>
@@ -476,6 +476,12 @@
   </si>
   <si>
     <t>Deployment changes Working(Original Media, User Name and format Quality changes)</t>
+  </si>
+  <si>
+    <t>Video Quanlity Enhancement</t>
+  </si>
+  <si>
+    <t>Video Quanlity Enhancement and Deployment</t>
   </si>
 </sst>
 </file>
@@ -2882,7 +2888,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2982,7 +2988,9 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1"/>
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
       <c r="B5" s="10">
         <v>44442</v>
       </c>
@@ -3001,7 +3009,9 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
       <c r="B6" s="10">
         <v>44443</v>
       </c>
@@ -3020,7 +3030,9 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1"/>
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
       <c r="B7" s="10">
         <v>44444</v>
       </c>
@@ -3038,31 +3050,67 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="12"/>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44444</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44444</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="12"/>
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44444</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD39EE1-32EB-4479-9A0D-42E33966A411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC08BF2B-20C8-4B46-9C8F-F7BE6D1D95D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="148">
   <si>
     <t>Task</t>
   </si>
@@ -482,6 +482,12 @@
   </si>
   <si>
     <t>Video Quanlity Enhancement and Deployment</t>
+  </si>
+  <si>
+    <t>DashBoard Changes</t>
+  </si>
+  <si>
+    <t>QMVAR_V2</t>
   </si>
 </sst>
 </file>
@@ -2885,10 +2891,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EAFE2D-2932-40F0-BB30-6CD08F169206}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3055,7 +3061,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10">
-        <v>44444</v>
+        <v>44445</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>47</v>
@@ -3076,7 +3082,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10">
-        <v>44444</v>
+        <v>44446</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>47</v>
@@ -3097,7 +3103,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10">
-        <v>44444</v>
+        <v>44447</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>47</v>
@@ -3114,48 +3120,108 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="13"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44448</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="13"/>
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44449</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="13"/>
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44450</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="12"/>
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44452</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="13"/>
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44453</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -3164,14 +3230,14 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="13"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1"/>
       <c r="B17" s="10"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="4"/>
       <c r="F17" s="12"/>
       <c r="G17" s="1"/>
@@ -3198,16 +3264,16 @@
       <c r="A20" s="1"/>
       <c r="B20" s="10"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="12"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="1"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="10"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="1"/>
       <c r="F21" s="13"/>
       <c r="G21" s="1"/>
@@ -3226,18 +3292,9 @@
       <c r="B23" s="10"/>
       <c r="C23" s="1"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="13"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="19"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC08BF2B-20C8-4B46-9C8F-F7BE6D1D95D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA716242-0ACF-4744-AC9D-346A4EE2531C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="152">
   <si>
     <t>Task</t>
   </si>
@@ -488,6 +488,18 @@
   </si>
   <si>
     <t>QMVAR_V2</t>
+  </si>
+  <si>
+    <t>Code Cleanup</t>
+  </si>
+  <si>
+    <t>Code Cleanup &amp; Application Hosting in Dev Server</t>
+  </si>
+  <si>
+    <t>testing and bug fixing</t>
+  </si>
+  <si>
+    <t>Gone through folder tree structure</t>
   </si>
 </sst>
 </file>
@@ -2893,8 +2905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EAFE2D-2932-40F0-BB30-6CD08F169206}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3225,78 +3237,206 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="12"/>
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44454</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="12"/>
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44455</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="12"/>
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44456</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="12"/>
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44459</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="13"/>
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44460</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="19"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="28"/>
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44461</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>52</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="13"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="19"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="13"/>
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44462</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="19"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="13"/>
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="10">
+        <v>44463</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA716242-0ACF-4744-AC9D-346A4EE2531C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35F24DD-1A6D-4C1B-875D-C51068C67949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="153">
   <si>
     <t>Task</t>
   </si>
@@ -500,6 +500,9 @@
   </si>
   <si>
     <t>Gone through folder tree structure</t>
+  </si>
+  <si>
+    <t>Subnet changes</t>
   </si>
 </sst>
 </file>
@@ -2903,10 +2906,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EAFE2D-2932-40F0-BB30-6CD08F169206}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3322,7 +3325,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="10">
         <v>44460</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" s="10">
         <v>44461</v>
@@ -3360,7 +3363,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B22" s="10">
         <v>44462</v>
@@ -3381,7 +3384,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B23" s="10">
         <v>44463</v>
@@ -3399,6 +3402,90 @@
         <v>5</v>
       </c>
       <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44466</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="10">
+        <v>44467</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" s="10">
+        <v>44468</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27" s="10">
+        <v>44469</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F12">

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35F24DD-1A6D-4C1B-875D-C51068C67949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2F68A4-C452-4DC1-A832-EA953077B338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="JUL-2021" sheetId="21" r:id="rId10"/>
     <sheet name="AUG-2021" sheetId="22" r:id="rId11"/>
     <sheet name="SEP-2021" sheetId="23" r:id="rId12"/>
+    <sheet name="OCT-2021" sheetId="24" r:id="rId13"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="157">
   <si>
     <t>Task</t>
   </si>
@@ -503,6 +504,18 @@
   </si>
   <si>
     <t>Subnet changes</t>
+  </si>
+  <si>
+    <t>Default Page Folder display using store group checking</t>
+  </si>
+  <si>
+    <t>Kaisokku</t>
+  </si>
+  <si>
+    <t>Frame work creation</t>
+  </si>
+  <si>
+    <t>Holiday</t>
   </si>
 </sst>
 </file>
@@ -2908,8 +2921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EAFE2D-2932-40F0-BB30-6CD08F169206}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3486,6 +3499,504 @@
         <v>5</v>
       </c>
       <c r="G27" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4869D38B-273D-4241-BC26-467F73C0AB8A}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44470</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44471</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44472</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44473</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44474</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44475</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44476</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44477</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44478</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44479</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44480</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44481</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44482</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44483</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44484</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44485</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44486</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44487</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44488</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44489</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44490</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="10">
+        <v>44491</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44492</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="10">
+        <v>44493</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" s="10">
+        <v>44494</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27" s="10">
+        <v>44495</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="10">
+        <v>44496</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" s="10">
+        <v>44497</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="B30" s="10">
+        <v>44498</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31" s="10">
+        <v>44499</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F12">

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2F68A4-C452-4DC1-A832-EA953077B338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1AA10A-382F-4EDD-8990-F9B55F473284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="162">
   <si>
     <t>Task</t>
   </si>
@@ -516,6 +516,21 @@
   </si>
   <si>
     <t>Holiday</t>
+  </si>
+  <si>
+    <t>Penna</t>
+  </si>
+  <si>
+    <t>API Call import and display data</t>
+  </si>
+  <si>
+    <t>Folder Structure option 5 working</t>
+  </si>
+  <si>
+    <t>Folder Structure option 1 working</t>
+  </si>
+  <si>
+    <t>Folder Structure option 6 working</t>
   </si>
 </sst>
 </file>
@@ -3545,8 +3560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4869D38B-273D-4241-BC26-467F73C0AB8A}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3680,10 +3695,18 @@
       <c r="B7" s="10">
         <v>44475</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="12"/>
+      <c r="C7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
@@ -3693,10 +3716,18 @@
       <c r="B8" s="10">
         <v>44476</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="12"/>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
@@ -3706,10 +3737,18 @@
       <c r="B9" s="10">
         <v>44477</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="13"/>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
@@ -3720,7 +3759,9 @@
         <v>44478</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="28"/>
+      <c r="D10" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="12"/>
       <c r="G10" s="1"/>
@@ -3733,7 +3774,9 @@
         <v>44479</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="13"/>
       <c r="G11" s="1"/>
@@ -3745,10 +3788,18 @@
       <c r="B12" s="10">
         <v>44480</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="13"/>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
@@ -3758,10 +3809,18 @@
       <c r="B13" s="10">
         <v>44481</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="13"/>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
@@ -3771,10 +3830,18 @@
       <c r="B14" s="10">
         <v>44482</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="13"/>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
@@ -3784,10 +3851,18 @@
       <c r="B15" s="10">
         <v>44483</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="12"/>
+      <c r="C15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -3797,10 +3872,18 @@
       <c r="B16" s="10">
         <v>44484</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="13"/>
+      <c r="C16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
@@ -3811,9 +3894,11 @@
         <v>44485</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="13"/>
+      <c r="D17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
@@ -3824,9 +3909,11 @@
         <v>44486</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="12"/>
+      <c r="D18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -3836,10 +3923,18 @@
       <c r="B19" s="10">
         <v>44487</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="13"/>
+      <c r="C19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
@@ -3999,30 +4094,6 @@
       <c r="G31" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F22">
     <cfRule type="colorScale" priority="1">
       <colorScale>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1AA10A-382F-4EDD-8990-F9B55F473284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53335D3-43CD-42DE-BC5C-54995F0F0029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="167">
   <si>
     <t>Task</t>
   </si>
@@ -531,13 +531,28 @@
   </si>
   <si>
     <t>Folder Structure option 6 working</t>
+  </si>
+  <si>
+    <t>API Call Integration</t>
+  </si>
+  <si>
+    <t>Code Walk through</t>
+  </si>
+  <si>
+    <t>Video Management</t>
+  </si>
+  <si>
+    <t>API Call Modification YREALIZATION</t>
+  </si>
+  <si>
+    <t>API New Request LOGI_COST Analyses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,6 +601,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -681,7 +703,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -742,6 +764,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3558,10 +3583,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4869D38B-273D-4241-BC26-467F73C0AB8A}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3944,10 +3969,18 @@
       <c r="B20" s="10">
         <v>44488</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="12"/>
+      <c r="C20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -3957,10 +3990,18 @@
       <c r="B21" s="10">
         <v>44489</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="13"/>
+      <c r="C21" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -3970,10 +4011,18 @@
       <c r="B22" s="10">
         <v>44490</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="13"/>
+      <c r="C22" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -3981,12 +4030,20 @@
         <v>23</v>
       </c>
       <c r="B23" s="10">
-        <v>44491</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="12"/>
+        <v>44490</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
@@ -3994,12 +4051,14 @@
         <v>24</v>
       </c>
       <c r="B24" s="10">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="28"/>
+      <c r="D24" s="28" t="s">
+        <v>52</v>
+      </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="13"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -4007,10 +4066,12 @@
         <v>25</v>
       </c>
       <c r="B25" s="10">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="28"/>
+      <c r="D25" s="28" t="s">
+        <v>156</v>
+      </c>
       <c r="E25" s="4"/>
       <c r="F25" s="13"/>
       <c r="G25" s="1"/>
@@ -4020,10 +4081,12 @@
         <v>26</v>
       </c>
       <c r="B26" s="10">
-        <v>44494</v>
+        <v>44493</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="28"/>
+      <c r="D26" s="28" t="s">
+        <v>156</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="13"/>
       <c r="G26" s="1"/>
@@ -4033,12 +4096,20 @@
         <v>27</v>
       </c>
       <c r="B27" s="10">
-        <v>44495</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="12"/>
+        <v>44494</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -4046,12 +4117,20 @@
         <v>28</v>
       </c>
       <c r="B28" s="10">
-        <v>44496</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+        <v>44495</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -4059,10 +4138,14 @@
         <v>29</v>
       </c>
       <c r="B29" s="10">
-        <v>44497</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+        <v>44496</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>166</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -4072,12 +4155,20 @@
         <v>30</v>
       </c>
       <c r="B30" s="10">
-        <v>44498</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+        <v>44496</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
@@ -4085,28 +4176,70 @@
         <v>31</v>
       </c>
       <c r="B31" s="10">
+        <v>44497</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32" s="10">
+        <v>44498</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33" s="10">
         <v>44499</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34" s="10">
+        <v>44500</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53335D3-43CD-42DE-BC5C-54995F0F0029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49445CC0-378D-409E-8EB5-85091C3AF161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="AUG-2021" sheetId="22" r:id="rId11"/>
     <sheet name="SEP-2021" sheetId="23" r:id="rId12"/>
     <sheet name="OCT-2021" sheetId="24" r:id="rId13"/>
+    <sheet name="NOV-2021" sheetId="25" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="168">
   <si>
     <t>Task</t>
   </si>
@@ -546,6 +547,9 @@
   </si>
   <si>
     <t>API New Request LOGI_COST Analyses</t>
+  </si>
+  <si>
+    <t>Web API Task</t>
   </si>
 </sst>
 </file>
@@ -3585,8 +3589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4869D38B-273D-4241-BC26-467F73C0AB8A}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4240,6 +4244,471 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08FBF28-F06B-4246-BD0B-6C1F30B8D843}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44501</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44502</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44503</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44504</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44505</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44506</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44507</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44508</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44509</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44510</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44511</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44512</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44513</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44514</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44515</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44516</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44517</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44518</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44519</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44520</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44521</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>44522</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44523</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10">
+        <v>44524</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>44525</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10">
+        <v>44526</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10">
+        <v>44527</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10">
+        <v>44528</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10">
+        <v>44530</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49445CC0-378D-409E-8EB5-85091C3AF161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5AF217-5C21-41BD-9535-C28150148622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="173">
   <si>
     <t>Task</t>
   </si>
@@ -550,6 +550,21 @@
   </si>
   <si>
     <t>Web API Task</t>
+  </si>
+  <si>
+    <t>Video Management issue fixing</t>
+  </si>
+  <si>
+    <t>Holiday - Deepavali</t>
+  </si>
+  <si>
+    <t>Subnet issue checking</t>
+  </si>
+  <si>
+    <t>Weekend</t>
+  </si>
+  <si>
+    <t>Subnet issue woking</t>
   </si>
 </sst>
 </file>
@@ -3590,7 +3605,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:F14"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4252,12 +4267,13 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="59.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -4334,10 +4350,18 @@
       <c r="B4" s="10">
         <v>44503</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="13"/>
+      <c r="C4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
@@ -4348,7 +4372,9 @@
         <v>44504</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="13"/>
       <c r="G5" s="1"/>
@@ -4360,10 +4386,18 @@
       <c r="B6" s="10">
         <v>44505</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
@@ -4374,7 +4408,9 @@
         <v>44506</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="12"/>
       <c r="G7" s="1"/>
@@ -4387,7 +4423,9 @@
         <v>44507</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="28"/>
+      <c r="D8" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="12"/>
       <c r="G8" s="1"/>
@@ -4399,10 +4437,18 @@
       <c r="B9" s="10">
         <v>44508</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="13"/>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
@@ -4412,10 +4458,14 @@
       <c r="B10" s="10">
         <v>44509</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="28"/>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>172</v>
+      </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="12"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
@@ -4425,8 +4475,12 @@
       <c r="B11" s="10">
         <v>44510</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>172</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="13"/>
       <c r="G11" s="1"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5AF217-5C21-41BD-9535-C28150148622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472E2444-4875-4CE6-BB23-D86FD4A1FC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="174">
   <si>
     <t>Task</t>
   </si>
@@ -565,6 +565,9 @@
   </si>
   <si>
     <t>Subnet issue woking</t>
+  </si>
+  <si>
+    <t>Project Co ordinate</t>
   </si>
 </sst>
 </file>
@@ -4266,8 +4269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08FBF28-F06B-4246-BD0B-6C1F30B8D843}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4464,8 +4467,12 @@
       <c r="D10" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="13"/>
+      <c r="E10" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
@@ -4481,8 +4488,12 @@
       <c r="D11" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="13"/>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
@@ -4492,10 +4503,18 @@
       <c r="B12" s="10">
         <v>44511</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="13"/>
+      <c r="C12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
@@ -4505,10 +4524,18 @@
       <c r="B13" s="10">
         <v>44512</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="13"/>
+      <c r="C13" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
@@ -4519,7 +4546,9 @@
         <v>44513</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="13"/>
       <c r="G14" s="1"/>
@@ -4532,9 +4561,11 @@
         <v>44514</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="12"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -4545,7 +4576,9 @@
         <v>44515</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="28"/>
+      <c r="D16" s="28" t="s">
+        <v>52</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="13"/>
       <c r="G16" s="1"/>
@@ -4557,10 +4590,18 @@
       <c r="B17" s="10">
         <v>44516</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="13"/>
+      <c r="C17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
@@ -4570,10 +4611,18 @@
       <c r="B18" s="10">
         <v>44517</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="12"/>
+      <c r="C18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -4584,7 +4633,9 @@
         <v>44518</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="28"/>
+      <c r="D19" s="28" t="s">
+        <v>52</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="13"/>
       <c r="G19" s="1"/>
@@ -4726,18 +4777,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F19">
     <cfRule type="colorScale" priority="2">
       <colorScale>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472E2444-4875-4CE6-BB23-D86FD4A1FC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC915C2-FBB4-40F4-A90E-24FB5B0E3F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="180">
   <si>
     <t>Task</t>
   </si>
@@ -568,6 +568,24 @@
   </si>
   <si>
     <t>Project Co ordinate</t>
+  </si>
+  <si>
+    <t>Half day Leave / Web API Task</t>
+  </si>
+  <si>
+    <t>Demo Link Videp Working</t>
+  </si>
+  <si>
+    <t>Half day Leave / Demo Link Video working</t>
+  </si>
+  <si>
+    <t>Demo Link Video working</t>
+  </si>
+  <si>
+    <t>2021/11/31</t>
+  </si>
+  <si>
+    <t>Image Working</t>
   </si>
 </sst>
 </file>
@@ -4267,10 +4285,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08FBF28-F06B-4246-BD0B-6C1F30B8D843}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4647,10 +4665,18 @@
       <c r="B20" s="10">
         <v>44519</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="12"/>
+      <c r="C20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -4661,7 +4687,9 @@
         <v>44520</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="28"/>
+      <c r="D21" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="13"/>
       <c r="G21" s="1"/>
@@ -4674,7 +4702,9 @@
         <v>44521</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="28"/>
+      <c r="D22" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="13"/>
       <c r="G22" s="1"/>
@@ -4686,10 +4716,18 @@
       <c r="B23" s="10">
         <v>44522</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="12"/>
+      <c r="C23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
@@ -4700,7 +4738,9 @@
         <v>44523</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="28"/>
+      <c r="D24" s="28" t="s">
+        <v>52</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="13"/>
       <c r="G24" s="1"/>
@@ -4712,8 +4752,12 @@
       <c r="B25" s="10">
         <v>44524</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="28"/>
+      <c r="C25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>176</v>
+      </c>
       <c r="E25" s="4"/>
       <c r="F25" s="13"/>
       <c r="G25" s="1"/>
@@ -4725,8 +4769,12 @@
       <c r="B26" s="10">
         <v>44525</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="28"/>
+      <c r="C26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>174</v>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="13"/>
       <c r="G26" s="1"/>
@@ -4738,8 +4786,12 @@
       <c r="B27" s="10">
         <v>44526</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="28"/>
+      <c r="C27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>177</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="12"/>
       <c r="G27" s="1"/>
@@ -4751,6 +4803,13 @@
       <c r="B28" s="10">
         <v>44527</v>
       </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
@@ -4759,6 +4818,13 @@
       <c r="B29" s="10">
         <v>44528</v>
       </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
@@ -4767,6 +4833,13 @@
       <c r="B30" s="10">
         <v>44529</v>
       </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
@@ -4775,6 +4848,41 @@
       <c r="B31" s="10">
         <v>44530</v>
       </c>
+      <c r="C31" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="19">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F19">

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC915C2-FBB4-40F4-A90E-24FB5B0E3F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA6188E-4CAB-4C78-B7FD-97AB8D23A6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="SEP-2021" sheetId="23" r:id="rId12"/>
     <sheet name="OCT-2021" sheetId="24" r:id="rId13"/>
     <sheet name="NOV-2021" sheetId="25" r:id="rId14"/>
+    <sheet name="DEC-2021" sheetId="26" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="183">
   <si>
     <t>Task</t>
   </si>
@@ -586,6 +587,15 @@
   </si>
   <si>
     <t>Image Working</t>
+  </si>
+  <si>
+    <t>Middleware Working</t>
+  </si>
+  <si>
+    <t>Ms Access Application</t>
+  </si>
+  <si>
+    <t>Image Checking using FFMPEG</t>
   </si>
 </sst>
 </file>
@@ -4287,8 +4297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08FBF28-F06B-4246-BD0B-6C1F30B8D843}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4913,6 +4923,557 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAF4F6F-69C5-42ED-95B2-39D4B37B07C6}">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44531</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44532</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44533</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44534</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44535</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44536</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44537</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1"/>
+      <c r="B9" s="10">
+        <v>44537</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="19">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44538</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44539</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44540</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44541</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44542</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44543</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44544</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44545</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44546</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44547</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44548</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44549</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44550</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>44551</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44552</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10">
+        <v>44553</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>44554</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10">
+        <v>44555</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10">
+        <v>44556</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10">
+        <v>44557</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10">
+        <v>44558</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10">
+        <v>44559</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10">
+        <v>44560</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10">
+        <v>44561</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10">
+        <v>44562</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10">
+        <v>44563</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5498BFB-CF10-4DEC-BC3C-383954428206}">
   <dimension ref="A1:G33"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA6188E-4CAB-4C78-B7FD-97AB8D23A6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23CD842-CA64-45AE-93DF-07440252E801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="184">
   <si>
     <t>Task</t>
   </si>
@@ -596,6 +596,9 @@
   </si>
   <si>
     <t>Image Checking using FFMPEG</t>
+  </si>
+  <si>
+    <t>Store, Subnet, Store group issue woking</t>
   </si>
 </sst>
 </file>
@@ -4298,7 +4301,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:F11"/>
+      <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4928,7 +4931,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D14"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5202,10 +5205,18 @@
       <c r="B15" s="10">
         <v>44543</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="12"/>
+      <c r="C15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -5215,10 +5226,18 @@
       <c r="B16" s="10">
         <v>44544</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="13"/>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
@@ -5228,10 +5247,18 @@
       <c r="B17" s="10">
         <v>44545</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="13"/>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
@@ -5241,10 +5268,18 @@
       <c r="B18" s="10">
         <v>44546</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -5254,10 +5289,18 @@
       <c r="B19" s="10">
         <v>44547</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23CD842-CA64-45AE-93DF-07440252E801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D66752-CCD9-4375-99B7-A13B99C83368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="184">
   <si>
     <t>Task</t>
   </si>
@@ -4930,8 +4930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAF4F6F-69C5-42ED-95B2-39D4B37B07C6}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4997,6 +4997,7 @@
       <c r="D3" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
@@ -5032,7 +5033,7 @@
         <v>156</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="12"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7">
@@ -5180,7 +5181,7 @@
         <v>156</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="12"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
@@ -5296,10 +5297,10 @@
         <v>180</v>
       </c>
       <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>5</v>
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -5311,9 +5312,11 @@
         <v>44548</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="28"/>
+      <c r="D20" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="12"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -5324,9 +5327,11 @@
         <v>44549</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="28"/>
+      <c r="D21" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="12"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -5336,10 +5341,18 @@
       <c r="B22" s="10">
         <v>44550</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="13"/>
+      <c r="C22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D66752-CCD9-4375-99B7-A13B99C83368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AB213D-F88E-44AD-8672-A0ECD6B50C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="187">
   <si>
     <t>Task</t>
   </si>
@@ -599,6 +599,15 @@
   </si>
   <si>
     <t>Store, Subnet, Store group issue woking</t>
+  </si>
+  <si>
+    <t>expirationnotice</t>
+  </si>
+  <si>
+    <t>Database Migration</t>
+  </si>
+  <si>
+    <t>Read only user created</t>
   </si>
 </sst>
 </file>
@@ -4928,16 +4937,16 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAF4F6F-69C5-42ED-95B2-39D4B37B07C6}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -5297,7 +5306,7 @@
         <v>180</v>
       </c>
       <c r="E19" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>3</v>
@@ -5348,10 +5357,10 @@
         <v>180</v>
       </c>
       <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>5</v>
+        <v>0.6</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -5362,10 +5371,18 @@
       <c r="B23" s="10">
         <v>44551</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="13"/>
+      <c r="C23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
@@ -5375,10 +5392,18 @@
       <c r="B24" s="10">
         <v>44552</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="13"/>
+      <c r="C24" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -5388,10 +5413,18 @@
       <c r="B25" s="10">
         <v>44553</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="12"/>
+      <c r="C25" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -5399,12 +5432,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="10">
-        <v>44554</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="13"/>
+        <v>44553</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
@@ -5412,12 +5453,20 @@
         <v>26</v>
       </c>
       <c r="B27" s="10">
-        <v>44555</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="13"/>
+        <v>44554</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -5425,7 +5474,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="10">
-        <v>44556</v>
+        <v>44555</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="28"/>
@@ -5438,7 +5487,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="10">
-        <v>44557</v>
+        <v>44556</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="28"/>
@@ -5451,12 +5500,12 @@
         <v>29</v>
       </c>
       <c r="B30" s="10">
-        <v>44558</v>
+        <v>44557</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="13"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
@@ -5464,12 +5513,12 @@
         <v>30</v>
       </c>
       <c r="B31" s="10">
-        <v>44559</v>
+        <v>44558</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="13"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
@@ -5477,12 +5526,12 @@
         <v>31</v>
       </c>
       <c r="B32" s="10">
-        <v>44560</v>
+        <v>44559</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="28"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="12"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
@@ -5490,12 +5539,12 @@
         <v>32</v>
       </c>
       <c r="B33" s="10">
-        <v>44561</v>
+        <v>44560</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
@@ -5503,10 +5552,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="10">
-        <v>44562</v>
+        <v>44561</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="28"/>
+      <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -5516,13 +5565,26 @@
         <v>34</v>
       </c>
       <c r="B35" s="10">
-        <v>44563</v>
+        <v>44562</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="28"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10">
+        <v>44563</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AB213D-F88E-44AD-8672-A0ECD6B50C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C9727B-E71E-407A-85AA-A5E601290AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="190">
   <si>
     <t>Task</t>
   </si>
@@ -608,6 +608,15 @@
   </si>
   <si>
     <t>Read only user created</t>
+  </si>
+  <si>
+    <t>Search page</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>One more IP Address added in existing Read only user</t>
   </si>
 </sst>
 </file>
@@ -765,7 +774,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -828,6 +837,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4937,10 +4949,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAF4F6F-69C5-42ED-95B2-39D4B37B07C6}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5477,7 +5489,9 @@
         <v>44555</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="28"/>
+      <c r="D28" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="13"/>
       <c r="G28" s="1"/>
@@ -5490,7 +5504,9 @@
         <v>44556</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="28"/>
+      <c r="D29" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="13"/>
       <c r="G29" s="1"/>
@@ -5502,10 +5518,18 @@
       <c r="B30" s="10">
         <v>44557</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="13"/>
+      <c r="C30" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
@@ -5513,12 +5537,20 @@
         <v>30</v>
       </c>
       <c r="B31" s="10">
-        <v>44558</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+        <v>44557</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
@@ -5526,12 +5558,18 @@
         <v>31</v>
       </c>
       <c r="B32" s="10">
-        <v>44559</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="13"/>
+        <v>44558</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
@@ -5539,12 +5577,18 @@
         <v>32</v>
       </c>
       <c r="B33" s="10">
-        <v>44560</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="28"/>
+        <v>44559</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>188</v>
+      </c>
       <c r="E33" s="4"/>
-      <c r="F33" s="12"/>
+      <c r="F33" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
@@ -5552,12 +5596,18 @@
         <v>33</v>
       </c>
       <c r="B34" s="10">
-        <v>44561</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+        <v>44560</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
@@ -5565,26 +5615,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="10">
-        <v>44562</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="28"/>
+        <v>44561</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>188</v>
+      </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="F35" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="10">
-        <v>44563</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,26 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C9727B-E71E-407A-85AA-A5E601290AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242829F4-5E9B-4DAE-9155-520C2DC6F195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
     <sheet name="NOV-2020" sheetId="11" r:id="rId2"/>
     <sheet name="DEC-2020" sheetId="12" r:id="rId3"/>
     <sheet name="JAN-2021" sheetId="14" r:id="rId4"/>
-    <sheet name="FEB-2021" sheetId="15" r:id="rId5"/>
-    <sheet name="MAR-2021" sheetId="16" r:id="rId6"/>
-    <sheet name="APR-2021" sheetId="17" r:id="rId7"/>
-    <sheet name="MAY-2021" sheetId="18" r:id="rId8"/>
-    <sheet name="JUN-2021" sheetId="19" r:id="rId9"/>
-    <sheet name="JUL-2021" sheetId="21" r:id="rId10"/>
-    <sheet name="AUG-2021" sheetId="22" r:id="rId11"/>
-    <sheet name="SEP-2021" sheetId="23" r:id="rId12"/>
-    <sheet name="OCT-2021" sheetId="24" r:id="rId13"/>
-    <sheet name="NOV-2021" sheetId="25" r:id="rId14"/>
-    <sheet name="DEC-2021" sheetId="26" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="27" r:id="rId5"/>
+    <sheet name="FEB-2021" sheetId="15" r:id="rId6"/>
+    <sheet name="MAR-2021" sheetId="16" r:id="rId7"/>
+    <sheet name="APR-2021" sheetId="17" r:id="rId8"/>
+    <sheet name="MAY-2021" sheetId="18" r:id="rId9"/>
+    <sheet name="JUN-2021" sheetId="19" r:id="rId10"/>
+    <sheet name="JUL-2021" sheetId="21" r:id="rId11"/>
+    <sheet name="AUG-2021" sheetId="22" r:id="rId12"/>
+    <sheet name="SEP-2021" sheetId="23" r:id="rId13"/>
+    <sheet name="OCT-2021" sheetId="24" r:id="rId14"/>
+    <sheet name="NOV-2021" sheetId="25" r:id="rId15"/>
+    <sheet name="DEC-2021" sheetId="26" r:id="rId16"/>
+    <sheet name="JAN-2022" sheetId="28" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="197">
   <si>
     <t>Task</t>
   </si>
@@ -617,6 +619,27 @@
   </si>
   <si>
     <t>One more IP Address added in existing Read only user</t>
+  </si>
+  <si>
+    <t>Scheduler issue</t>
+  </si>
+  <si>
+    <t>1 Report completed</t>
+  </si>
+  <si>
+    <t>2nd Report completed</t>
+  </si>
+  <si>
+    <t>HoliDay(Pongal)</t>
+  </si>
+  <si>
+    <t>HoliDay(Thaipoosam)</t>
+  </si>
+  <si>
+    <t>HoliDay(Republic Day)</t>
+  </si>
+  <si>
+    <t>Leave(PL)</t>
   </si>
 </sst>
 </file>
@@ -774,7 +797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -841,6 +864,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1684,6 +1713,535 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B3C2CE-654F-47A3-848A-F1C3D285380E}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44348</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44349</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44350</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44351</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44354</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44355</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44356</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44357</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44358</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44361</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44362</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44362</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44363</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44364</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44365</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44368</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44369</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44370</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44371</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44372</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="19">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44375</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="19">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10">
+        <v>44376</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="19">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44377</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A08316-8619-42BE-A30C-769E3C87CF0F}">
   <dimension ref="A1:G42"/>
   <sheetViews>
@@ -2513,7 +3071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56F7C24-044E-4AF2-8858-E92A656FF50B}">
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -3031,7 +3589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EAFE2D-2932-40F0-BB30-6CD08F169206}">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -3655,7 +4213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4869D38B-273D-4241-BC26-467F73C0AB8A}">
   <dimension ref="A1:G34"/>
   <sheetViews>
@@ -4317,7 +4875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08FBF28-F06B-4246-BD0B-6C1F30B8D843}">
   <dimension ref="A1:G33"/>
   <sheetViews>
@@ -4947,12 +5505,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAF4F6F-69C5-42ED-95B2-39D4B37B07C6}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5628,6 +6186,570 @@
         <v>3</v>
       </c>
       <c r="G35" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782E46F5-F632-462B-B685-387506737000}">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44562</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44563</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44564</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44565</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44566</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44567</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44568</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="31"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44569</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44570</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44571</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44571</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44572</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="32"/>
+      <c r="G13" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="19">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44572</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44573</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="19">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44574</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44575</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="19">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44576</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44577</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="19">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44578</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44579</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="19">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44580</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>44581</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="19">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44582</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10">
+        <v>44583</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="19">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>44584</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10">
+        <v>44585</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="19">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10">
+        <v>44586</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10">
+        <v>44587</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="19">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10">
+        <v>44588</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10">
+        <v>44589</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="19">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10">
+        <v>44590</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10">
+        <v>44591</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="19">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10">
+        <v>44592</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6886,7 +8008,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:F15"/>
+      <selection sqref="A1:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7403,6 +8525,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3280173E-D342-4A48-83B6-C19FA1CEB5C4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE48016-C14F-432A-B523-39C49937726D}">
   <dimension ref="A1:G90"/>
   <sheetViews>
@@ -8518,7 +9654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8384DEB-BB5E-4F46-9A0E-CF5213C24232}">
   <dimension ref="A1:G35"/>
   <sheetViews>
@@ -9163,7 +10299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBEE8AC-BA90-42E8-A496-94E7CF75A770}">
   <dimension ref="A1:G35"/>
   <sheetViews>
@@ -9731,7 +10867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6CB570-938C-47FD-8C65-D1DC01B394DE}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -10261,533 +11397,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B3C2CE-654F-47A3-848A-F1C3D285380E}">
-  <dimension ref="A1:G24"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10">
-        <v>44348</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10">
-        <v>44349</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10">
-        <v>44350</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10">
-        <v>44351</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10">
-        <v>44354</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10">
-        <v>44355</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10">
-        <v>44356</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10">
-        <v>44357</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10">
-        <v>44358</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10">
-        <v>44361</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10">
-        <v>44362</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10">
-        <v>44362</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="10">
-        <v>44363</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="10">
-        <v>44364</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="10">
-        <v>44365</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="10">
-        <v>44368</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="10">
-        <v>44369</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="10">
-        <v>44370</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="10">
-        <v>44371</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="10">
-        <v>44372</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="19">
-        <v>20</v>
-      </c>
-      <c r="B22" s="10">
-        <v>44375</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="19">
-        <v>21</v>
-      </c>
-      <c r="B23" s="10">
-        <v>44376</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E23" s="4">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="19">
-        <v>22</v>
-      </c>
-      <c r="B24" s="10">
-        <v>44377</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242829F4-5E9B-4DAE-9155-520C2DC6F195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F80DFE4-5E46-427D-B318-53F8CBA8E6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="200">
   <si>
     <t>Task</t>
   </si>
@@ -640,6 +640,15 @@
   </si>
   <si>
     <t>Leave(PL)</t>
+  </si>
+  <si>
+    <t>3rd Report completed</t>
+  </si>
+  <si>
+    <t>4th Report &amp; English conversion completed</t>
+  </si>
+  <si>
+    <t>Penna MiddleWare</t>
   </si>
 </sst>
 </file>
@@ -6197,14 +6206,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782E46F5-F632-462B-B685-387506737000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
@@ -6526,7 +6535,9 @@
         <v>44576</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="31"/>
       <c r="G18" s="19"/>
@@ -6539,7 +6550,9 @@
         <v>44577</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="32"/>
       <c r="G19" s="19"/>
@@ -6557,11 +6570,13 @@
       <c r="D20" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>3</v>
+      <c r="E20" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="F20" s="32"/>
-      <c r="G20" s="19"/>
+      <c r="G20" s="19" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
@@ -6585,9 +6600,15 @@
       <c r="B22" s="10">
         <v>44580</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
@@ -6613,9 +6634,15 @@
       <c r="B24" s="10">
         <v>44582</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
@@ -6627,7 +6654,9 @@
         <v>44583</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -6639,11 +6668,19 @@
       <c r="B26" s="10">
         <v>44584</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="19" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
@@ -6652,9 +6689,13 @@
       <c r="B27" s="10">
         <v>44585</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
@@ -6665,9 +6706,13 @@
       <c r="B28" s="10">
         <v>44586</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
@@ -6693,9 +6738,13 @@
       <c r="B30" s="10">
         <v>44588</v>
       </c>
-      <c r="C30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
@@ -6706,9 +6755,13 @@
       <c r="B31" s="10">
         <v>44589</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
@@ -6720,7 +6773,9 @@
         <v>44590</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -6733,7 +6788,9 @@
         <v>44591</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -6745,9 +6802,13 @@
       <c r="B34" s="10">
         <v>44592</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F80DFE4-5E46-427D-B318-53F8CBA8E6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D59980-FDD5-4954-ABDE-F11FDA93A64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="NOV-2021" sheetId="25" r:id="rId15"/>
     <sheet name="DEC-2021" sheetId="26" r:id="rId16"/>
     <sheet name="JAN-2022" sheetId="28" r:id="rId17"/>
+    <sheet name="FEB-2022" sheetId="29" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="205">
   <si>
     <t>Task</t>
   </si>
@@ -649,6 +650,21 @@
   </si>
   <si>
     <t>Penna MiddleWare</t>
+  </si>
+  <si>
+    <t>Database user create and access</t>
+  </si>
+  <si>
+    <t>YAARAA-Reverpro</t>
+  </si>
+  <si>
+    <t>Query changes</t>
+  </si>
+  <si>
+    <t>Penna Scheduler</t>
+  </si>
+  <si>
+    <t>Log Changes</t>
   </si>
 </sst>
 </file>
@@ -6206,8 +6222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782E46F5-F632-462B-B685-387506737000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6815,6 +6831,533 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19554E5-D4C4-4D27-9FF0-77A8ADFCB840}">
+  <dimension ref="A1:G34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44593</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44594</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44595</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="20">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44596</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="20">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44597</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44598</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="31"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44599</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44600</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44601</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44602</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44603</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44604</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="19">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44605</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44606</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="19">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44607</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44608</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="19">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44609</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44610</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="19">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44611</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44612</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="19">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44613</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>44614</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="19">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44615</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10">
+        <v>44616</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="19">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>44617</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10">
+        <v>44618</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="19">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10">
+        <v>44619</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10">
+        <v>44620</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="19">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10">
+        <v>44621</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10">
+        <v>44622</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="19">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10">
+        <v>44623</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10">
+        <v>44624</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="19">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10">
+        <v>44625</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D59980-FDD5-4954-ABDE-F11FDA93A64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D739D1A6-B9F8-4ECD-8103-DA765FD1D003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="207">
   <si>
     <t>Task</t>
   </si>
@@ -665,6 +665,12 @@
   </si>
   <si>
     <t>Log Changes</t>
+  </si>
+  <si>
+    <t>Report issue</t>
+  </si>
+  <si>
+    <t>Log Changes(Scheduler days split)</t>
   </si>
 </sst>
 </file>
@@ -822,7 +828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -895,6 +901,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6836,10 +6848,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19554E5-D4C4-4D27-9FF0-77A8ADFCB840}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6847,7 +6859,7 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
   </cols>
@@ -6865,7 +6877,7 @@
       <c r="D1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="33" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="18" t="s">
@@ -7038,10 +7050,18 @@
       <c r="B10" s="10">
         <v>44601</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="32"/>
+      <c r="C10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7">
@@ -7051,10 +7071,18 @@
       <c r="B11" s="10">
         <v>44602</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="C11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7">
@@ -7062,12 +7090,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="10">
-        <v>44603</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
+        <v>44602</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7">
@@ -7075,12 +7111,12 @@
         <v>12</v>
       </c>
       <c r="B13" s="10">
-        <v>44604</v>
+        <v>44603</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7">
@@ -7088,11 +7124,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="10">
-        <v>44605</v>
+        <v>44604</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="32"/>
       <c r="G14" s="19"/>
     </row>
@@ -7101,11 +7137,11 @@
         <v>14</v>
       </c>
       <c r="B15" s="10">
-        <v>44606</v>
+        <v>44605</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="32"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="32"/>
       <c r="G15" s="19"/>
     </row>
@@ -7114,12 +7150,12 @@
         <v>15</v>
       </c>
       <c r="B16" s="10">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7">
@@ -7127,10 +7163,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="10">
-        <v>44608</v>
+        <v>44607</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
       <c r="G17" s="19"/>
@@ -7140,11 +7176,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="10">
-        <v>44609</v>
+        <v>44608</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="20"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="31"/>
       <c r="G18" s="19"/>
     </row>
@@ -7153,12 +7189,12 @@
         <v>18</v>
       </c>
       <c r="B19" s="10">
-        <v>44610</v>
+        <v>44609</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="32"/>
+      <c r="F19" s="31"/>
       <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7">
@@ -7166,11 +7202,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="10">
-        <v>44611</v>
+        <v>44610</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="32"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="32"/>
       <c r="G20" s="19"/>
     </row>
@@ -7179,12 +7215,12 @@
         <v>20</v>
       </c>
       <c r="B21" s="10">
-        <v>44612</v>
+        <v>44611</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="19"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7">
@@ -7192,23 +7228,23 @@
         <v>21</v>
       </c>
       <c r="B22" s="10">
-        <v>44613</v>
+        <v>44612</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="30"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="31"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="10">
-        <v>44614</v>
+        <v>44613</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="31"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -7218,10 +7254,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="10">
-        <v>44615</v>
+        <v>44614</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="30"/>
+      <c r="D24" s="1"/>
       <c r="E24" s="31"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -7231,10 +7267,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="10">
-        <v>44616</v>
+        <v>44615</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="31"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -7244,33 +7280,33 @@
         <v>25</v>
       </c>
       <c r="B26" s="10">
-        <v>44617</v>
+        <v>44616</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="32"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="19"/>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="10">
-        <v>44618</v>
+        <v>44617</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="31"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="19">
         <v>27</v>
       </c>
       <c r="B28" s="10">
-        <v>44619</v>
+        <v>44618</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -7283,7 +7319,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="10">
-        <v>44620</v>
+        <v>44619</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -7296,7 +7332,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="10">
-        <v>44621</v>
+        <v>44620</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -7309,11 +7345,11 @@
         <v>30</v>
       </c>
       <c r="B31" s="10">
-        <v>44622</v>
+        <v>44621</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="32"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
@@ -7322,11 +7358,11 @@
         <v>31</v>
       </c>
       <c r="B32" s="10">
-        <v>44623</v>
+        <v>44622</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="31"/>
+      <c r="E32" s="32"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
@@ -7335,7 +7371,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="10">
-        <v>44624</v>
+        <v>44623</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -7348,13 +7384,26 @@
         <v>33</v>
       </c>
       <c r="B34" s="10">
-        <v>44625</v>
+        <v>44624</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="31"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10">
+        <v>44625</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D739D1A6-B9F8-4ECD-8103-DA765FD1D003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48029CA8-56B8-467A-8BE3-6FFC30E98BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="209">
   <si>
     <t>Task</t>
   </si>
@@ -671,6 +671,12 @@
   </si>
   <si>
     <t>Log Changes(Scheduler days split)</t>
+  </si>
+  <si>
+    <t>Dashboard Query</t>
+  </si>
+  <si>
+    <t>Mysql Setup</t>
   </si>
 </sst>
 </file>
@@ -6850,8 +6856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19554E5-D4C4-4D27-9FF0-77A8ADFCB840}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7098,11 +7104,11 @@
       <c r="D12" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>5</v>
+      <c r="E12" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="G12" s="19"/>
     </row>
@@ -7113,10 +7119,18 @@
       <c r="B13" s="10">
         <v>44603</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
+      <c r="C13" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E13" s="20">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7">
@@ -7127,7 +7141,9 @@
         <v>44604</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="30"/>
+      <c r="D14" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E14" s="32"/>
       <c r="F14" s="32"/>
       <c r="G14" s="19"/>
@@ -7140,7 +7156,9 @@
         <v>44605</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="19"/>
+      <c r="D15" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E15" s="20"/>
       <c r="F15" s="32"/>
       <c r="G15" s="19"/>
@@ -7152,10 +7170,18 @@
       <c r="B16" s="10">
         <v>44606</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
+      <c r="C16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7">
@@ -7165,10 +7191,18 @@
       <c r="B17" s="10">
         <v>44607</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
+      <c r="C17" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7">
@@ -7178,10 +7212,18 @@
       <c r="B18" s="10">
         <v>44608</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
+      <c r="C18" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7">
@@ -7191,10 +7233,18 @@
       <c r="B19" s="10">
         <v>44609</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="31"/>
+      <c r="C19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="20">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7">
@@ -7204,10 +7254,18 @@
       <c r="B20" s="10">
         <v>44610</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="32"/>
+      <c r="C20" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E20" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7">
@@ -7218,7 +7276,9 @@
         <v>44611</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="30"/>
+      <c r="D21" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
       <c r="G21" s="19"/>
@@ -7231,7 +7291,9 @@
         <v>44612</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E22" s="31"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -7244,7 +7306,6 @@
         <v>44613</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="30"/>
       <c r="E23" s="31"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48029CA8-56B8-467A-8BE3-6FFC30E98BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61B2A87-4D92-4676-88D1-169F7B61E210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="210">
   <si>
     <t>Task</t>
   </si>
@@ -677,6 +677,9 @@
   </si>
   <si>
     <t>Mysql Setup</t>
+  </si>
+  <si>
+    <t>Dashboard Query (Change Request)</t>
   </si>
 </sst>
 </file>
@@ -6857,7 +6860,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7305,9 +7308,18 @@
       <c r="B23" s="10">
         <v>44613</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E23" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
@@ -7317,10 +7329,18 @@
       <c r="B24" s="10">
         <v>44614</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" s="20">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61B2A87-4D92-4676-88D1-169F7B61E210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47290AAC-F1D8-464B-8489-EB8C2B6BC003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="DEC-2021" sheetId="26" r:id="rId16"/>
     <sheet name="JAN-2022" sheetId="28" r:id="rId17"/>
     <sheet name="FEB-2022" sheetId="29" r:id="rId18"/>
+    <sheet name="MAR-2022" sheetId="30" r:id="rId19"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="219">
   <si>
     <t>Task</t>
   </si>
@@ -680,6 +681,33 @@
   </si>
   <si>
     <t>Dashboard Query (Change Request)</t>
+  </si>
+  <si>
+    <t>Change Request</t>
+  </si>
+  <si>
+    <t>Loft</t>
+  </si>
+  <si>
+    <t>Image Process</t>
+  </si>
+  <si>
+    <t>OBIC_HW</t>
+  </si>
+  <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t>DLL creation</t>
+  </si>
+  <si>
+    <t>Dash board Query</t>
+  </si>
+  <si>
+    <t>New Chages working</t>
+  </si>
+  <si>
+    <t>New Chages working Partial search</t>
   </si>
 </sst>
 </file>
@@ -837,7 +865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -915,6 +943,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1232,6 +1263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -1760,6 +1792,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B3C2CE-654F-47A3-848A-F1C3D285380E}">
+  <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -2289,6 +2322,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A08316-8619-42BE-A30C-769E3C87CF0F}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -3119,6 +3153,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56F7C24-044E-4AF2-8858-E92A656FF50B}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -3637,6 +3672,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EAFE2D-2932-40F0-BB30-6CD08F169206}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -4261,6 +4297,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4869D38B-273D-4241-BC26-467F73C0AB8A}">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -4923,6 +4960,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08FBF28-F06B-4246-BD0B-6C1F30B8D843}">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5553,6 +5591,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAF4F6F-69C5-42ED-95B2-39D4B37B07C6}">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -6241,6 +6280,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782E46F5-F632-462B-B685-387506737000}">
+  <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6857,10 +6897,11 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19554E5-D4C4-4D27-9FF0-77A8ADFCB840}">
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7350,10 +7391,18 @@
       <c r="B25" s="10">
         <v>44615</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25" s="20">
+        <v>1</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -7363,10 +7412,18 @@
       <c r="B26" s="10">
         <v>44616</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="20">
+        <v>1</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
@@ -7376,10 +7433,16 @@
       <c r="B27" s="10">
         <v>44617</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="E27" s="32"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7">
@@ -7390,7 +7453,9 @@
         <v>44618</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E28" s="31"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -7403,7 +7468,9 @@
         <v>44619</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E29" s="31"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -7415,10 +7482,16 @@
       <c r="B30" s="10">
         <v>44620</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" s="32"/>
+      <c r="F30" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
@@ -7485,6 +7558,598 @@
       <c r="E35" s="31"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE4DEA5-5CF4-43CD-AE9B-E041102DADDF}">
+  <sheetPr codeName="Sheet19"/>
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44621</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44621</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44622</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44623</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44624</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44625</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44626</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44627</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44628</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44629</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44630</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44631</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44632</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44633</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44634</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44635</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44636</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44637</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44638</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44639</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44640</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>44641</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44642</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10">
+        <v>44643</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>44644</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10">
+        <v>44645</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10">
+        <v>44646</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10">
+        <v>44647</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10">
+        <v>44648</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10">
+        <v>44649</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10">
+        <v>44650</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10">
+        <v>44651</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="F35" s="20"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="F36" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7493,6 +8158,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5498BFB-CF10-4DEC-BC3C-383954428206}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8078,6 +8744,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B659DD37-F437-446D-94F2-76BC2ACBCC75}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8739,6 +9406,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A94DFD-91B8-4857-99D0-BFDE93A240BA}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9260,6 +9928,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3280173E-D342-4A48-83B6-C19FA1CEB5C4}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9274,6 +9943,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE48016-C14F-432A-B523-39C49937726D}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10390,6 +11060,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8384DEB-BB5E-4F46-9A0E-CF5213C24232}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -11035,6 +11706,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBEE8AC-BA90-42E8-A496-94E7CF75A770}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11603,6 +12275,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6CB570-938C-47FD-8C65-D1DC01B394DE}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47290AAC-F1D8-464B-8489-EB8C2B6BC003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B3DB9E-1C69-484F-B554-5A7A7B726243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="226">
   <si>
     <t>Task</t>
   </si>
@@ -708,6 +708,27 @@
   </si>
   <si>
     <t>New Chages working Partial search</t>
+  </si>
+  <si>
+    <t>New Chages working Partial search with out space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warrenty Query </t>
+  </si>
+  <si>
+    <t>Service order pending Engineering assigned Query</t>
+  </si>
+  <si>
+    <t>Penna MRP</t>
+  </si>
+  <si>
+    <t>Frame work</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Anguaar JS Learning - Angular Topics</t>
   </si>
 </sst>
 </file>
@@ -865,7 +886,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -947,6 +968,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7567,17 +7591,17 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE4DEA5-5CF4-43CD-AE9B-E041102DADDF}">
   <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:F19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
@@ -7967,10 +7991,18 @@
       <c r="B20" s="10">
         <v>44638</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
+      <c r="C20" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7">
@@ -7981,7 +8013,9 @@
         <v>44639</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="19"/>
@@ -7994,7 +8028,9 @@
         <v>44640</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="30"/>
+      <c r="D22" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E22" s="32"/>
       <c r="F22" s="20"/>
       <c r="G22" s="19"/>
@@ -8006,10 +8042,18 @@
       <c r="B23" s="10">
         <v>44641</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="20"/>
+      <c r="C23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7">
@@ -8017,12 +8061,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="10">
-        <v>44642</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
+        <v>44641</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -8030,12 +8082,20 @@
         <v>24</v>
       </c>
       <c r="B25" s="10">
-        <v>44643</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+        <v>44642</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -8043,12 +8103,20 @@
         <v>25</v>
       </c>
       <c r="B26" s="10">
-        <v>44644</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
+        <v>44642</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
@@ -8056,12 +8124,20 @@
         <v>26</v>
       </c>
       <c r="B27" s="10">
-        <v>44645</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+        <v>44642</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -8069,25 +8145,41 @@
         <v>27</v>
       </c>
       <c r="B28" s="10">
-        <v>44646</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="19"/>
+        <v>44643</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="10">
-        <v>44647</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="20"/>
+        <v>44643</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -8095,11 +8187,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="10">
-        <v>44648</v>
+        <v>44644</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
+      <c r="D30" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="1"/>
     </row>
@@ -8108,12 +8202,20 @@
         <v>30</v>
       </c>
       <c r="B31" s="10">
-        <v>44649</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="20"/>
+        <v>44645</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
@@ -8121,35 +8223,129 @@
         <v>31</v>
       </c>
       <c r="B32" s="10">
-        <v>44650</v>
+        <v>44646</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="31"/>
+      <c r="D32" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="32"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="19"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="10">
-        <v>44651</v>
+        <v>44647</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="32"/>
+      <c r="D33" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" s="31"/>
       <c r="F33" s="20"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="F34" s="20"/>
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10">
+        <v>44648</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="F35" s="20"/>
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10">
+        <v>44649</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="F36" s="20"/>
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10">
+        <v>44649</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10">
+        <v>44650</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10">
+        <v>44651</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B3DB9E-1C69-484F-B554-5A7A7B726243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECA0609-F299-4E08-ACEA-F95CF8C63402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="226">
   <si>
     <t>Task</t>
   </si>
@@ -7593,8 +7593,8 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8316,15 +8316,17 @@
       <c r="B37" s="10">
         <v>44650</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="36" t="s">
-        <v>225</v>
+      <c r="C37" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>216</v>
       </c>
       <c r="E37" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -8340,10 +8342,10 @@
         <v>225</v>
       </c>
       <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>5</v>
+        <v>0.5</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="G38" s="1"/>
     </row>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECA0609-F299-4E08-ACEA-F95CF8C63402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3716C9C-12BC-4D4B-BD98-3D5DF6935C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="227">
   <si>
     <t>Task</t>
   </si>
@@ -729,6 +729,9 @@
   </si>
   <si>
     <t>Anguaar JS Learning - Angular Topics</t>
+  </si>
+  <si>
+    <t>Import Issue</t>
   </si>
 </sst>
 </file>
@@ -7591,10 +7594,10 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE4DEA5-5CF4-43CD-AE9B-E041102DADDF}">
   <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37:F37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8337,17 +8340,39 @@
       <c r="B38" s="10">
         <v>44651</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="D38" s="36" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E38" s="4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>3</v>
       </c>
       <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10">
+        <v>44651</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3716C9C-12BC-4D4B-BD98-3D5DF6935C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCC896C-43B6-4F44-8F53-1750ED1DC562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="JAN-2022" sheetId="28" r:id="rId17"/>
     <sheet name="FEB-2022" sheetId="29" r:id="rId18"/>
     <sheet name="MAR-2022" sheetId="30" r:id="rId19"/>
+    <sheet name="APR-2022" sheetId="31" r:id="rId20"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="228">
   <si>
     <t>Task</t>
   </si>
@@ -732,6 +733,9 @@
   </si>
   <si>
     <t>Import Issue</t>
+  </si>
+  <si>
+    <t>Import Issue &amp; Performance issue</t>
   </si>
 </sst>
 </file>
@@ -7594,10 +7598,10 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE4DEA5-5CF4-43CD-AE9B-E041102DADDF}">
   <sheetPr codeName="Sheet19"/>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:F39"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8373,6 +8377,9 @@
       <c r="F39" s="12" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8959,6 +8966,565 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B95366-DD82-4568-A00F-C1F7E80B8D17}">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44652</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44653</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44654</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44655</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44656</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44657</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44658</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44659</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44660</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44661</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44662</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44663</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44664</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44665</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44666</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44667</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44668</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44669</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44670</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44671</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44672</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>44673</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44674</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10">
+        <v>44675</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>44676</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10">
+        <v>44677</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10">
+        <v>44678</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10">
+        <v>44679</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10">
+        <v>44680</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10">
+        <v>44681</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10">
+        <v>44682</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10">
+        <v>44683</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10">
+        <v>44684</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10">
+        <v>44685</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10">
+        <v>44686</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10">
+        <v>44687</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10">
+        <v>44688</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10">
+        <v>44689</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCC896C-43B6-4F44-8F53-1750ED1DC562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683325CC-C9FE-4FE6-A8E5-637482D3E6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="232">
   <si>
     <t>Task</t>
   </si>
@@ -736,6 +736,18 @@
   </si>
   <si>
     <t>Import Issue &amp; Performance issue</t>
+  </si>
+  <si>
+    <t>AngularJs Training</t>
+  </si>
+  <si>
+    <t>Package Import</t>
+  </si>
+  <si>
+    <t>Tamil New Year Holiday</t>
+  </si>
+  <si>
+    <t>Good Friday Holiday</t>
   </si>
 </sst>
 </file>
@@ -7601,7 +7613,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:D33"/>
+      <selection activeCell="C35" sqref="C35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8974,10 +8986,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B95366-DD82-4568-A00F-C1F7E80B8D17}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D18" sqref="D18:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9046,7 +9058,7 @@
         <v>156</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="F3" s="12"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7">
@@ -9078,10 +9090,10 @@
         <v>227</v>
       </c>
       <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>5</v>
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="G5" s="19"/>
     </row>
@@ -9092,187 +9104,225 @@
       <c r="B6" s="10">
         <v>44656</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="13"/>
+      <c r="C6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="10">
-        <v>44657</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="31"/>
+        <v>44656</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="10">
-        <v>44658</v>
+        <v>44657</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="30"/>
+      <c r="D8" s="30" t="s">
+        <v>228</v>
+      </c>
       <c r="E8" s="35"/>
       <c r="F8" s="31"/>
       <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="10">
-        <v>44659</v>
+        <v>44658</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="13"/>
+      <c r="D9" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="10">
-        <v>44660</v>
+        <v>44659</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="30"/>
+      <c r="D10" s="30" t="s">
+        <v>228</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="13"/>
       <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="10">
-        <v>44661</v>
+        <v>44660</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="30"/>
+      <c r="D11" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="13"/>
       <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="10">
-        <v>44662</v>
+        <v>44661</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="12"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="10">
-        <v>44663</v>
+        <v>44662</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="30"/>
+      <c r="D13" s="30" t="s">
+        <v>228</v>
+      </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="13"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="10">
-        <v>44664</v>
+        <v>44663</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="D14" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="10">
-        <v>44665</v>
+        <v>44664</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="32"/>
+      <c r="D15" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="10">
-        <v>44666</v>
+        <v>44665</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="13"/>
+      <c r="D16" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="10">
-        <v>44667</v>
+        <v>44666</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="30"/>
+      <c r="D17" s="30" t="s">
+        <v>231</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="13"/>
       <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="10">
-        <v>44668</v>
+        <v>44667</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="30"/>
+      <c r="D18" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="12"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="10">
-        <v>44669</v>
+        <v>44668</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="30"/>
+      <c r="D19" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="12"/>
       <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="10">
-        <v>44670</v>
+        <v>44669</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="30"/>
@@ -9282,62 +9332,62 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="10">
-        <v>44671</v>
+        <v>44670</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="30"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="10">
-        <v>44672</v>
+        <v>44671</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="30"/>
-      <c r="E22" s="32"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="20"/>
       <c r="G22" s="19"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="10">
-        <v>44673</v>
+        <v>44672</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="30"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="12"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="10">
-        <v>44674</v>
+        <v>44673</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="30"/>
       <c r="E24" s="4"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="10">
-        <v>44675</v>
+        <v>44674</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="30"/>
@@ -9347,23 +9397,23 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="10">
-        <v>44676</v>
+        <v>44675</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="30"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="13"/>
+      <c r="F26" s="12"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="10">
-        <v>44677</v>
+        <v>44676</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="30"/>
@@ -9373,23 +9423,23 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="10">
-        <v>44678</v>
+        <v>44677</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="30"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="12"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="10">
-        <v>44679</v>
+        <v>44678</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="30"/>
@@ -9399,75 +9449,75 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="10">
-        <v>44680</v>
+        <v>44679</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="30"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="12"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="10">
-        <v>44681</v>
+        <v>44680</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="13"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="10">
-        <v>44682</v>
+        <v>44681</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="19"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="10">
-        <v>44683</v>
+        <v>44682</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
+      <c r="E33" s="32"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="19"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="10">
-        <v>44684</v>
+        <v>44683</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="12"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="10">
-        <v>44685</v>
+        <v>44684</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="36"/>
@@ -9477,54 +9527,67 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="10">
-        <v>44686</v>
+        <v>44685</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="36"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="13"/>
+      <c r="F36" s="12"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="10">
-        <v>44687</v>
+        <v>44686</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="30"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="12"/>
+      <c r="F37" s="13"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="10">
-        <v>44688</v>
+        <v>44687</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="36"/>
+      <c r="D38" s="30"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="13"/>
+      <c r="F38" s="12"/>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="10">
+        <v>44688</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B40" s="10">
         <v>44689</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="12"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683325CC-C9FE-4FE6-A8E5-637482D3E6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DCA4F5-26F6-4358-91A9-9F287AB5CB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="236">
   <si>
     <t>Task</t>
   </si>
@@ -748,6 +748,18 @@
   </si>
   <si>
     <t>Good Friday Holiday</t>
+  </si>
+  <si>
+    <t>AngularJs Training CRUD</t>
+  </si>
+  <si>
+    <t>Report issue working</t>
+  </si>
+  <si>
+    <t>AngularJs Training WebAPI</t>
+  </si>
+  <si>
+    <t>Linux Server checking</t>
   </si>
 </sst>
 </file>
@@ -7613,7 +7625,7 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:D35"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8986,10 +8998,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B95366-DD82-4568-A00F-C1F7E80B8D17}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9325,7 +9337,9 @@
         <v>44669</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="30"/>
+      <c r="D20" s="30" t="s">
+        <v>232</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="12"/>
       <c r="G20" s="19"/>
@@ -9337,10 +9351,18 @@
       <c r="B21" s="10">
         <v>44670</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="12"/>
+      <c r="C21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G21" s="19"/>
     </row>
     <row r="22" spans="1:7">
@@ -9348,12 +9370,14 @@
         <v>20</v>
       </c>
       <c r="B22" s="10">
-        <v>44671</v>
+        <v>44670</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="D22" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="19"/>
     </row>
     <row r="23" spans="1:7">
@@ -9361,12 +9385,20 @@
         <v>21</v>
       </c>
       <c r="B23" s="10">
-        <v>44672</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="20"/>
+        <v>44671</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="G23" s="19"/>
     </row>
     <row r="24" spans="1:7">
@@ -9374,12 +9406,14 @@
         <v>22</v>
       </c>
       <c r="B24" s="10">
-        <v>44673</v>
+        <v>44671</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="12"/>
+      <c r="D24" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="19"/>
     </row>
     <row r="25" spans="1:7">
@@ -9387,51 +9421,53 @@
         <v>23</v>
       </c>
       <c r="B25" s="10">
-        <v>44674</v>
+        <v>44671</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="1"/>
+      <c r="D25" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="10">
-        <v>44675</v>
+        <v>44672</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="30"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="1"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="19"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="10">
-        <v>44676</v>
+        <v>44673</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="30"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="10">
-        <v>44677</v>
+        <v>44674</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="30"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="13"/>
+      <c r="F28" s="12"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -9439,7 +9475,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="10">
-        <v>44678</v>
+        <v>44675</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="30"/>
@@ -9452,12 +9488,12 @@
         <v>28</v>
       </c>
       <c r="B30" s="10">
-        <v>44679</v>
+        <v>44676</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="30"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="12"/>
+      <c r="F30" s="13"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
@@ -9465,12 +9501,12 @@
         <v>29</v>
       </c>
       <c r="B31" s="10">
-        <v>44680</v>
+        <v>44677</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="30"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
@@ -9478,12 +9514,12 @@
         <v>30</v>
       </c>
       <c r="B32" s="10">
-        <v>44681</v>
+        <v>44678</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="36"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="13"/>
+      <c r="F32" s="12"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
@@ -9491,24 +9527,24 @@
         <v>31</v>
       </c>
       <c r="B33" s="10">
-        <v>44682</v>
+        <v>44679</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="30"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="19"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="10">
-        <v>44683</v>
+        <v>44680</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
+      <c r="E34" s="20"/>
       <c r="F34" s="20"/>
       <c r="G34" s="1"/>
     </row>
@@ -9517,12 +9553,12 @@
         <v>33</v>
       </c>
       <c r="B35" s="10">
-        <v>44684</v>
+        <v>44681</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="36"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="13"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
@@ -9530,25 +9566,25 @@
         <v>34</v>
       </c>
       <c r="B36" s="10">
-        <v>44685</v>
+        <v>44682</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="1"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="19"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="10">
-        <v>44686</v>
+        <v>44683</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="13"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="20"/>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
@@ -9556,10 +9592,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="10">
-        <v>44687</v>
+        <v>44684</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="30"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="4"/>
       <c r="F38" s="12"/>
       <c r="G38" s="1"/>
@@ -9569,12 +9605,12 @@
         <v>37</v>
       </c>
       <c r="B39" s="10">
-        <v>44688</v>
+        <v>44685</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="36"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="13"/>
+      <c r="F39" s="12"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
@@ -9582,12 +9618,51 @@
         <v>38</v>
       </c>
       <c r="B40" s="10">
+        <v>44686</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="10">
+        <v>44687</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="10">
+        <v>44688</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="10">
         <v>44689</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="12"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DCA4F5-26F6-4358-91A9-9F287AB5CB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD67227-42CE-477A-BF41-FC5CEBB183D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="237">
   <si>
     <t>Task</t>
   </si>
@@ -760,6 +760,9 @@
   </si>
   <si>
     <t>Linux Server checking</t>
+  </si>
+  <si>
+    <t>Changes issue fixing</t>
   </si>
 </sst>
 </file>
@@ -9000,8 +9003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B95366-DD82-4568-A00F-C1F7E80B8D17}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9439,7 +9442,9 @@
         <v>44672</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="30"/>
+      <c r="D26" s="30" t="s">
+        <v>234</v>
+      </c>
       <c r="E26" s="32"/>
       <c r="F26" s="20"/>
       <c r="G26" s="19"/>
@@ -9452,7 +9457,9 @@
         <v>44673</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="30"/>
+      <c r="D27" s="30" t="s">
+        <v>234</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="12"/>
       <c r="G27" s="19"/>
@@ -9465,7 +9472,9 @@
         <v>44674</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="30"/>
+      <c r="D28" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="12"/>
       <c r="G28" s="1"/>
@@ -9478,7 +9487,9 @@
         <v>44675</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="30"/>
+      <c r="D29" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="12"/>
       <c r="G29" s="1"/>
@@ -9491,7 +9502,9 @@
         <v>44676</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="30"/>
+      <c r="D30" s="30" t="s">
+        <v>235</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="13"/>
       <c r="G30" s="1"/>
@@ -9504,7 +9517,9 @@
         <v>44677</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="30"/>
+      <c r="D31" s="30" t="s">
+        <v>235</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="13"/>
       <c r="G31" s="1"/>
@@ -9516,8 +9531,12 @@
       <c r="B32" s="10">
         <v>44678</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="30"/>
+      <c r="C32" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>236</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="12"/>
       <c r="G32" s="1"/>
@@ -9529,8 +9548,12 @@
       <c r="B33" s="10">
         <v>44679</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="30"/>
+      <c r="C33" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>236</v>
+      </c>
       <c r="E33" s="4"/>
       <c r="F33" s="12"/>
       <c r="G33" s="1"/>
@@ -9542,8 +9565,12 @@
       <c r="B34" s="10">
         <v>44680</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="30"/>
+      <c r="C34" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>236</v>
+      </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
       <c r="G34" s="1"/>
@@ -9556,18 +9583,16 @@
         <v>44681</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="36"/>
+      <c r="D35" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E35" s="4"/>
       <c r="F35" s="13"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="10">
-        <v>44682</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="1"/>
       <c r="D36" s="30"/>
       <c r="E36" s="32"/>
@@ -9575,12 +9600,8 @@
       <c r="G36" s="19"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="10">
-        <v>44683</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="1"/>
       <c r="D37" s="30"/>
       <c r="E37" s="31"/>
@@ -9588,12 +9609,8 @@
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="10">
-        <v>44684</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="1"/>
       <c r="D38" s="36"/>
       <c r="E38" s="4"/>
@@ -9601,12 +9618,8 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="10">
-        <v>44685</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="1"/>
       <c r="D39" s="36"/>
       <c r="E39" s="4"/>
@@ -9614,12 +9627,8 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" s="10">
-        <v>44686</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="1"/>
       <c r="D40" s="36"/>
       <c r="E40" s="4"/>
@@ -9627,12 +9636,8 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" s="10">
-        <v>44687</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="1"/>
       <c r="D41" s="30"/>
       <c r="E41" s="4"/>
@@ -9640,12 +9645,8 @@
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" s="10">
-        <v>44688</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="1"/>
       <c r="D42" s="36"/>
       <c r="E42" s="4"/>
@@ -9653,12 +9654,8 @@
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" s="10">
-        <v>44689</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="1"/>
       <c r="D43" s="30"/>
       <c r="E43" s="4"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD67227-42CE-477A-BF41-FC5CEBB183D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC0EB1D-265F-4DCC-A56B-54878D3D89F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="FEB-2022" sheetId="29" r:id="rId18"/>
     <sheet name="MAR-2022" sheetId="30" r:id="rId19"/>
     <sheet name="APR-2022" sheetId="31" r:id="rId20"/>
+    <sheet name="MAY-2022" sheetId="32" r:id="rId21"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="240">
   <si>
     <t>Task</t>
   </si>
@@ -763,6 +764,15 @@
   </si>
   <si>
     <t>Changes issue fixing</t>
+  </si>
+  <si>
+    <t>SolarWinds</t>
+  </si>
+  <si>
+    <t>Requirement understanding</t>
+  </si>
+  <si>
+    <t>Database creation</t>
   </si>
 </sst>
 </file>
@@ -9003,8 +9013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B95366-DD82-4568-A00F-C1F7E80B8D17}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:A43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9660,6 +9670,554 @@
       <c r="D43" s="30"/>
       <c r="E43" s="4"/>
       <c r="F43" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367135FF-AC3D-46EE-B8D8-CF9C3EA4E1FE}">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44682</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44683</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44684</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44685</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44686</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="10">
+        <v>44687</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44688</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44689</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44690</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44691</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44692</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44693</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44694</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44695</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44696</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44697</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44698</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44699</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44700</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44701</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44702</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10">
+        <v>44703</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44704</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="10">
+        <v>44705</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10">
+        <v>44706</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="10">
+        <v>44707</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="10">
+        <v>44708</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="10">
+        <v>44709</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="10">
+        <v>44710</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="10">
+        <v>44711</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="10">
+        <v>44712</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC0EB1D-265F-4DCC-A56B-54878D3D89F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6E9930-D029-4115-BC51-4B1787FB24F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="248">
   <si>
     <t>Task</t>
   </si>
@@ -773,6 +773,30 @@
   </si>
   <si>
     <t>Database creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirement understanding </t>
+  </si>
+  <si>
+    <t>document create for clarification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Framework </t>
+  </si>
+  <si>
+    <t>Framework and KT from Suma San</t>
+  </si>
+  <si>
+    <t>Design Document walkthrough</t>
+  </si>
+  <si>
+    <t>Assign Task and some specific task</t>
+  </si>
+  <si>
+    <t>Import Proto type create &amp; co ordinate</t>
+  </si>
+  <si>
+    <t>co ordinage give solution</t>
   </si>
 </sst>
 </file>
@@ -9680,15 +9704,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367135FF-AC3D-46EE-B8D8-CF9C3EA4E1FE}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -9864,8 +9888,12 @@
       <c r="B10" s="10">
         <v>44690</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="30"/>
+      <c r="C10" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>240</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="20"/>
       <c r="G10" s="19"/>
@@ -9877,8 +9905,12 @@
       <c r="B11" s="10">
         <v>44691</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="30"/>
+      <c r="C11" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>241</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="20"/>
       <c r="G11" s="19"/>
@@ -9891,7 +9923,9 @@
         <v>44692</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30" t="s">
+        <v>52</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="20"/>
       <c r="G12" s="19"/>
@@ -9903,8 +9937,12 @@
       <c r="B13" s="10">
         <v>44693</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="30"/>
+      <c r="C13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>242</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="20"/>
       <c r="G13" s="19"/>
@@ -9916,8 +9954,12 @@
       <c r="B14" s="10">
         <v>44694</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="30"/>
+      <c r="C14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>243</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="20"/>
       <c r="G14" s="19"/>
@@ -9930,7 +9972,9 @@
         <v>44695</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="30"/>
+      <c r="D15" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="19"/>
@@ -9943,7 +9987,9 @@
         <v>44696</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="30"/>
+      <c r="D16" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E16" s="32"/>
       <c r="F16" s="20"/>
       <c r="G16" s="19"/>
@@ -9955,8 +10001,12 @@
       <c r="B17" s="10">
         <v>44697</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="30"/>
+      <c r="C17" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>244</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="20"/>
       <c r="G17" s="19"/>
@@ -9968,8 +10018,12 @@
       <c r="B18" s="10">
         <v>44698</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="30"/>
+      <c r="C18" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>245</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="20"/>
       <c r="G18" s="19"/>
@@ -9981,8 +10035,12 @@
       <c r="B19" s="10">
         <v>44699</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="30"/>
+      <c r="C19" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>246</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="20"/>
       <c r="G19" s="19"/>
@@ -9994,8 +10052,12 @@
       <c r="B20" s="10">
         <v>44700</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="30"/>
+      <c r="C20" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>246</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="20"/>
       <c r="G20" s="19"/>
@@ -10007,8 +10069,12 @@
       <c r="B21" s="10">
         <v>44701</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="30"/>
+      <c r="C21" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>246</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="20"/>
       <c r="G21" s="19"/>
@@ -10021,7 +10087,9 @@
         <v>44702</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="30"/>
+      <c r="D22" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="20"/>
       <c r="G22" s="19"/>
@@ -10034,7 +10102,9 @@
         <v>44703</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="30"/>
+      <c r="D23" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="20"/>
       <c r="G23" s="19"/>
@@ -10046,8 +10116,12 @@
       <c r="B24" s="10">
         <v>44704</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="30"/>
+      <c r="C24" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>247</v>
+      </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
       <c r="G24" s="19"/>
@@ -10059,8 +10133,12 @@
       <c r="B25" s="10">
         <v>44705</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="30"/>
+      <c r="C25" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>247</v>
+      </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
       <c r="G25" s="19"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6E9930-D029-4115-BC51-4B1787FB24F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB0E1AD-931A-485A-9351-CC47309FB11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="251">
   <si>
     <t>Task</t>
   </si>
@@ -797,6 +797,15 @@
   </si>
   <si>
     <t>co ordinage give solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Co ordinate </t>
+  </si>
+  <si>
+    <t>Co ordinate, Code Merge and deployment</t>
+  </si>
+  <si>
+    <t>Co ordinate,testing and Issue fixing</t>
   </si>
 </sst>
 </file>
@@ -9704,8 +9713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367135FF-AC3D-46EE-B8D8-CF9C3EA4E1FE}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10150,8 +10159,12 @@
       <c r="B26" s="10">
         <v>44706</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="30"/>
+      <c r="C26" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>248</v>
+      </c>
       <c r="E26" s="32"/>
       <c r="F26" s="20"/>
       <c r="G26" s="19"/>
@@ -10163,8 +10176,12 @@
       <c r="B27" s="10">
         <v>44707</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="30"/>
+      <c r="C27" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>248</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="20"/>
       <c r="G27" s="19"/>
@@ -10176,8 +10193,12 @@
       <c r="B28" s="10">
         <v>44708</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="30"/>
+      <c r="C28" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>249</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="20"/>
       <c r="G28" s="1"/>
@@ -10189,8 +10210,12 @@
       <c r="B29" s="10">
         <v>44709</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="30"/>
+      <c r="C29" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>250</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="20"/>
       <c r="G29" s="1"/>
@@ -10202,8 +10227,12 @@
       <c r="B30" s="10">
         <v>44710</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>249</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="20"/>
       <c r="G30" s="1"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB0E1AD-931A-485A-9351-CC47309FB11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE651923-B77B-4A64-B9E9-97EB8068AD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="252">
   <si>
     <t>Task</t>
   </si>
@@ -806,6 +806,9 @@
   </si>
   <si>
     <t>Co ordinate,testing and Issue fixing</t>
+  </si>
+  <si>
+    <t>Co ordinate,testing, issue fixing, Code Merge and deployment</t>
   </si>
 </sst>
 </file>
@@ -9714,14 +9717,14 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -10244,8 +10247,12 @@
       <c r="B31" s="10">
         <v>44711</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="30"/>
+      <c r="C31" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>251</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="20"/>
       <c r="G31" s="1"/>
@@ -10257,8 +10264,12 @@
       <c r="B32" s="10">
         <v>44712</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="30"/>
+      <c r="C32" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>251</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="20"/>
       <c r="G32" s="1"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE651923-B77B-4A64-B9E9-97EB8068AD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F8A04A-8641-4892-8221-7288760C6BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="15" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="MAR-2022" sheetId="30" r:id="rId19"/>
     <sheet name="APR-2022" sheetId="31" r:id="rId20"/>
     <sheet name="MAY-2022" sheetId="32" r:id="rId21"/>
+    <sheet name="JUN-2022" sheetId="33" r:id="rId22"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="252">
   <si>
     <t>Task</t>
   </si>
@@ -9716,7 +9717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367135FF-AC3D-46EE-B8D8-CF9C3EA4E1FE}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -10270,6 +10271,554 @@
       <c r="D32" s="30" t="s">
         <v>251</v>
       </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62424371-4F6D-4F21-A67F-98DECF42B273}">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44713</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44714</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44715</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44716</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44717</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="10">
+        <v>44718</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44719</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44720</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44721</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44722</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44723</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44724</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44725</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44726</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44727</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44728</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44729</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44730</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44731</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44732</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44733</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10">
+        <v>44734</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44735</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="10">
+        <v>44736</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10">
+        <v>44737</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="10">
+        <v>44738</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="10">
+        <v>44739</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="10">
+        <v>44740</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="10">
+        <v>44741</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="10">
+        <v>44742</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="10">
+        <v>44743</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="4"/>
       <c r="F32" s="20"/>
       <c r="G32" s="1"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F8A04A-8641-4892-8221-7288760C6BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D580150-CEE5-48B2-96C6-A2B77F3F9FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="15" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="253">
   <si>
     <t>Task</t>
   </si>
@@ -810,6 +810,9 @@
   </si>
   <si>
     <t>Co ordinate,testing, issue fixing, Code Merge and deployment</t>
+  </si>
+  <si>
+    <t>User Name from windows login</t>
   </si>
 </sst>
 </file>
@@ -10347,8 +10350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62424371-4F6D-4F21-A67F-98DECF42B273}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10583,8 +10586,12 @@
       <c r="B14" s="10">
         <v>44725</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="30"/>
+      <c r="C14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>251</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="20"/>
       <c r="G14" s="19"/>
@@ -10596,8 +10603,12 @@
       <c r="B15" s="10">
         <v>44726</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="30"/>
+      <c r="C15" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>251</v>
+      </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="19"/>
@@ -10609,8 +10620,12 @@
       <c r="B16" s="10">
         <v>44727</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="30"/>
+      <c r="C16" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>251</v>
+      </c>
       <c r="E16" s="32"/>
       <c r="F16" s="20"/>
       <c r="G16" s="19"/>
@@ -10622,8 +10637,12 @@
       <c r="B17" s="10">
         <v>44728</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="30"/>
+      <c r="C17" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>252</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="20"/>
       <c r="G17" s="19"/>
@@ -10635,8 +10654,12 @@
       <c r="B18" s="10">
         <v>44729</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="30"/>
+      <c r="C18" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>252</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="20"/>
       <c r="G18" s="19"/>
@@ -10649,7 +10672,9 @@
         <v>44730</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="30"/>
+      <c r="D19" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="20"/>
       <c r="G19" s="19"/>
@@ -10662,7 +10687,9 @@
         <v>44731</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="30"/>
+      <c r="D20" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="20"/>
       <c r="G20" s="19"/>
@@ -10674,8 +10701,12 @@
       <c r="B21" s="10">
         <v>44732</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="30"/>
+      <c r="C21" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>252</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="20"/>
       <c r="G21" s="19"/>
@@ -10687,8 +10718,12 @@
       <c r="B22" s="10">
         <v>44733</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="30"/>
+      <c r="C22" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>252</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="20"/>
       <c r="G22" s="19"/>
@@ -10700,8 +10735,12 @@
       <c r="B23" s="10">
         <v>44734</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="30"/>
+      <c r="C23" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>252</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="20"/>
       <c r="G23" s="19"/>
@@ -10714,7 +10753,9 @@
         <v>44735</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="30"/>
+      <c r="D24" s="30" t="s">
+        <v>52</v>
+      </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
       <c r="G24" s="19"/>
@@ -10727,7 +10768,9 @@
         <v>44736</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="30"/>
+      <c r="D25" s="30" t="s">
+        <v>52</v>
+      </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
       <c r="G25" s="19"/>
@@ -10740,7 +10783,9 @@
         <v>44737</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="30"/>
+      <c r="D26" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E26" s="32"/>
       <c r="F26" s="20"/>
       <c r="G26" s="19"/>
@@ -10753,7 +10798,9 @@
         <v>44738</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="30"/>
+      <c r="D27" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="20"/>
       <c r="G27" s="19"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D580150-CEE5-48B2-96C6-A2B77F3F9FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EF368B-1FDC-4F86-A640-633D28C63C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="15" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <sheet name="APR-2022" sheetId="31" r:id="rId20"/>
     <sheet name="MAY-2022" sheetId="32" r:id="rId21"/>
     <sheet name="JUN-2022" sheetId="33" r:id="rId22"/>
+    <sheet name="Leave Details" sheetId="34" r:id="rId23"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="266">
   <si>
     <t>Task</t>
   </si>
@@ -813,6 +814,45 @@
   </si>
   <si>
     <t>User Name from windows login</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>20/01/2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">puberty ceremony function </t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>24/03/2022</t>
+  </si>
+  <si>
+    <t>Tirupati</t>
+  </si>
+  <si>
+    <t>11/05/2022</t>
+  </si>
+  <si>
+    <t>Passport Office</t>
+  </si>
+  <si>
+    <t>10/06/2022</t>
+  </si>
+  <si>
+    <t>23/06/2022</t>
+  </si>
+  <si>
+    <t>24/06/2022</t>
+  </si>
+  <si>
+    <t>Home town festival</t>
   </si>
 </sst>
 </file>
@@ -10351,7 +10391,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10812,8 +10852,12 @@
       <c r="B28" s="10">
         <v>44739</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="30"/>
+      <c r="C28" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>252</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="20"/>
       <c r="G28" s="1"/>
@@ -10825,8 +10869,12 @@
       <c r="B29" s="10">
         <v>44740</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="30"/>
+      <c r="C29" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>252</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="20"/>
       <c r="G29" s="1"/>
@@ -10838,8 +10886,12 @@
       <c r="B30" s="10">
         <v>44741</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="30"/>
+      <c r="C30" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="20"/>
       <c r="G30" s="1"/>
@@ -10851,19 +10903,19 @@
       <c r="B31" s="10">
         <v>44742</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="30"/>
+      <c r="C31" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="20"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="10">
-        <v>44743</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="1"/>
       <c r="D32" s="30"/>
       <c r="E32" s="4"/>
@@ -10935,6 +10987,104 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8342E331-5035-4324-8044-BC3C7DB72416}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EF368B-1FDC-4F86-A640-633D28C63C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA279C4-E68B-419A-8C9E-679AB28F0CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="18" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
@@ -35,7 +35,8 @@
     <sheet name="APR-2022" sheetId="31" r:id="rId20"/>
     <sheet name="MAY-2022" sheetId="32" r:id="rId21"/>
     <sheet name="JUN-2022" sheetId="33" r:id="rId22"/>
-    <sheet name="Leave Details" sheetId="34" r:id="rId23"/>
+    <sheet name="JUL-2022" sheetId="35" r:id="rId23"/>
+    <sheet name="Leave Details" sheetId="34" r:id="rId24"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="272">
   <si>
     <t>Task</t>
   </si>
@@ -853,6 +854,24 @@
   </si>
   <si>
     <t>Home town festival</t>
+  </si>
+  <si>
+    <t>Email Modify Details</t>
+  </si>
+  <si>
+    <t>AWS Cloud Angular Application Hosting</t>
+  </si>
+  <si>
+    <t>AWS IAM User</t>
+  </si>
+  <si>
+    <t>20/07/2022</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>AWS Corss PlatForm</t>
   </si>
 </sst>
 </file>
@@ -10390,7 +10409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62424371-4F6D-4F21-A67F-98DECF42B273}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -10991,11 +11010,604 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AA7502-CEE2-486B-91E4-6175133A0590}">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44743</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44744</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44745</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44746</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44747</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44748</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44748</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44749</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44750</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44751</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44752</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44753</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44754</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44755</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44756</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44757</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44758</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44759</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44760</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44761</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44762</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>44763</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44764</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10">
+        <v>44765</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>44766</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10">
+        <v>44767</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E27" s="32"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10">
+        <v>44768</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10">
+        <v>44769</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10">
+        <v>44770</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10">
+        <v>44771</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10">
+        <v>44772</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10">
+        <v>44773</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8342E331-5035-4324-8044-BC3C7DB72416}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11080,6 +11692,17 @@
       </c>
       <c r="C7" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA279C4-E68B-419A-8C9E-679AB28F0CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F99C947-4CB2-49C8-B507-6F8885AC6FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="18" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="18" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
@@ -36,7 +36,8 @@
     <sheet name="MAY-2022" sheetId="32" r:id="rId21"/>
     <sheet name="JUN-2022" sheetId="33" r:id="rId22"/>
     <sheet name="JUL-2022" sheetId="35" r:id="rId23"/>
-    <sheet name="Leave Details" sheetId="34" r:id="rId24"/>
+    <sheet name="AUG-2022" sheetId="36" r:id="rId24"/>
+    <sheet name="Leave Details" sheetId="34" r:id="rId25"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1679" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="277">
   <si>
     <t>Task</t>
   </si>
@@ -872,6 +873,21 @@
   </si>
   <si>
     <t>AWS Corss PlatForm</t>
+  </si>
+  <si>
+    <t>10/08/2022</t>
+  </si>
+  <si>
+    <t>11/08/2022</t>
+  </si>
+  <si>
+    <t>Penna Middleware</t>
+  </si>
+  <si>
+    <t>Doctor Visit Application</t>
+  </si>
+  <si>
+    <t>HRMS Application</t>
   </si>
 </sst>
 </file>
@@ -11013,8 +11029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AA7502-CEE2-486B-91E4-6175133A0590}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A22" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection sqref="A1:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11603,11 +11619,522 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B6490A-361C-43C7-B783-BC6205646082}">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44774</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44775</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44776</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44777</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44778</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44779</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44780</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44781</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44782</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44783</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44784</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44785</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44786</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44787</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44788</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44789</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44790</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44791</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44792</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44793</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44794</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>44795</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44796</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10">
+        <v>44797</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>44798</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10">
+        <v>44799</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10">
+        <v>44800</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10">
+        <v>44801</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10">
+        <v>44802</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10">
+        <v>44803</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10">
+        <v>44804</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10">
+        <v>44805</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8342E331-5035-4324-8044-BC3C7DB72416}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11702,6 +12229,28 @@
         <v>87</v>
       </c>
       <c r="C8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>273</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
         <v>270</v>
       </c>
     </row>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F99C947-4CB2-49C8-B507-6F8885AC6FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E925CBA4-4FE2-4C4F-838E-CA348712ED3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="18" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="18" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="278">
   <si>
     <t>Task</t>
   </si>
@@ -888,6 +888,9 @@
   </si>
   <si>
     <t>HRMS Application</t>
+  </si>
+  <si>
+    <t>18/08/2022</t>
   </si>
 </sst>
 </file>
@@ -11622,8 +11625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B6490A-361C-43C7-B783-BC6205646082}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11845,7 +11848,9 @@
         <v>44786</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="30"/>
+      <c r="D14" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="20"/>
       <c r="G14" s="19"/>
@@ -11858,7 +11863,9 @@
         <v>44787</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="30"/>
+      <c r="D15" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="20"/>
       <c r="G15" s="19"/>
@@ -11871,7 +11878,9 @@
         <v>44788</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="30"/>
+      <c r="D16" s="30" t="s">
+        <v>274</v>
+      </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="19"/>
@@ -11884,7 +11893,9 @@
         <v>44789</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="30"/>
+      <c r="D17" s="30" t="s">
+        <v>274</v>
+      </c>
       <c r="E17" s="32"/>
       <c r="F17" s="20"/>
       <c r="G17" s="19"/>
@@ -11897,7 +11908,9 @@
         <v>44790</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="30"/>
+      <c r="D18" s="30" t="s">
+        <v>274</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="20"/>
       <c r="G18" s="19"/>
@@ -11910,7 +11923,9 @@
         <v>44791</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="30"/>
+      <c r="D19" s="30" t="s">
+        <v>52</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="20"/>
       <c r="G19" s="19"/>
@@ -11923,7 +11938,9 @@
         <v>44792</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="30"/>
+      <c r="D20" s="30" t="s">
+        <v>274</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="20"/>
       <c r="G20" s="19"/>
@@ -12131,10 +12148,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8342E331-5035-4324-8044-BC3C7DB72416}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12251,6 +12268,17 @@
         <v>87</v>
       </c>
       <c r="C10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
         <v>270</v>
       </c>
     </row>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E925CBA4-4FE2-4C4F-838E-CA348712ED3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84204612-96C4-45D1-9227-3CEDE708F7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="18" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="18" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="279">
   <si>
     <t>Task</t>
   </si>
@@ -891,6 +891,9 @@
   </si>
   <si>
     <t>18/08/2022</t>
+  </si>
+  <si>
+    <t>NextJS</t>
   </si>
 </sst>
 </file>
@@ -11623,10 +11626,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B6490A-361C-43C7-B783-BC6205646082}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11953,7 +11956,9 @@
         <v>44793</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="30"/>
+      <c r="D21" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="20"/>
       <c r="G21" s="19"/>
@@ -11966,7 +11971,9 @@
         <v>44794</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="30"/>
+      <c r="D22" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="20"/>
       <c r="G22" s="19"/>
@@ -11979,7 +11986,9 @@
         <v>44795</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="30"/>
+      <c r="D23" s="30" t="s">
+        <v>274</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="20"/>
       <c r="G23" s="19"/>
@@ -11992,7 +12001,9 @@
         <v>44796</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="30"/>
+      <c r="D24" s="30" t="s">
+        <v>278</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="20"/>
       <c r="G24" s="19"/>
@@ -12005,7 +12016,9 @@
         <v>44797</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="30"/>
+      <c r="D25" s="30" t="s">
+        <v>278</v>
+      </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
       <c r="G25" s="19"/>
@@ -12018,7 +12031,9 @@
         <v>44798</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="30"/>
+      <c r="D26" s="30" t="s">
+        <v>274</v>
+      </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="19"/>
@@ -12031,7 +12046,9 @@
         <v>44799</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="30"/>
+      <c r="D27" s="30" t="s">
+        <v>278</v>
+      </c>
       <c r="E27" s="32"/>
       <c r="F27" s="20"/>
       <c r="G27" s="19"/>
@@ -12044,7 +12061,9 @@
         <v>44800</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="30"/>
+      <c r="D28" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="20"/>
       <c r="G28" s="19"/>
@@ -12057,7 +12076,9 @@
         <v>44801</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="30"/>
+      <c r="D29" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="20"/>
       <c r="G29" s="1"/>
@@ -12070,7 +12091,9 @@
         <v>44802</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="30"/>
+      <c r="D30" s="30" t="s">
+        <v>278</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="20"/>
       <c r="G30" s="1"/>
@@ -12083,7 +12106,9 @@
         <v>44803</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="30"/>
+      <c r="D31" s="30" t="s">
+        <v>278</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="20"/>
       <c r="G31" s="1"/>
@@ -12096,50 +12121,39 @@
         <v>44804</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="30"/>
+      <c r="D32" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="20"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="10">
-        <v>44805</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="1"/>
       <c r="D33" s="30"/>
-      <c r="E33" s="4"/>
+      <c r="E33" s="32"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="19"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1"/>
       <c r="B34" s="10"/>
       <c r="C34" s="1"/>
       <c r="D34" s="30"/>
-      <c r="E34" s="32"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="19"/>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1"/>
       <c r="B35" s="10"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="20"/>
       <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12150,8 +12164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8342E331-5035-4324-8044-BC3C7DB72416}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84204612-96C4-45D1-9227-3CEDE708F7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7FBFF7-3731-4CF2-9F4F-8D699BAE2538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="18" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="19" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,8 @@
     <sheet name="JUN-2022" sheetId="33" r:id="rId22"/>
     <sheet name="JUL-2022" sheetId="35" r:id="rId23"/>
     <sheet name="AUG-2022" sheetId="36" r:id="rId24"/>
-    <sheet name="Leave Details" sheetId="34" r:id="rId25"/>
+    <sheet name="SEP-2022" sheetId="37" r:id="rId25"/>
+    <sheet name="Leave Details" sheetId="34" r:id="rId26"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="282">
   <si>
     <t>Task</t>
   </si>
@@ -894,13 +895,22 @@
   </si>
   <si>
     <t>NextJS</t>
+  </si>
+  <si>
+    <t>01/09/2022</t>
+  </si>
+  <si>
+    <t>Relative marriage</t>
+  </si>
+  <si>
+    <t>Monisha Marriage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -954,6 +964,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -11628,7 +11644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B6490A-361C-43C7-B783-BC6205646082}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -12092,7 +12108,7 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="30" t="s">
-        <v>278</v>
+        <v>203</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="20"/>
@@ -12107,7 +12123,7 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="30" t="s">
-        <v>278</v>
+        <v>203</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="20"/>
@@ -12161,11 +12177,490 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEAFBBF-5C3E-484D-8AE4-23D66F879A5E}">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44805</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44806</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44807</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44808</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44809</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44810</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44811</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44812</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44813</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44814</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44815</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44816</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44817</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44818</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44819</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44820</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44821</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44822</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44823</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44824</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44825</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>44826</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44827</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10">
+        <v>44828</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>44829</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10">
+        <v>44830</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10">
+        <v>44831</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10">
+        <v>44832</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10">
+        <v>44833</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10">
+        <v>44834</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10">
+        <v>44835</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8342E331-5035-4324-8044-BC3C7DB72416}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12294,6 +12789,28 @@
       </c>
       <c r="C11" t="s">
         <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Document\WBS\DailyTracker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7FBFF7-3731-4CF2-9F4F-8D699BAE2538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="19" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="19" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
@@ -50,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="287">
   <si>
     <t>Task</t>
   </si>
@@ -905,11 +899,26 @@
   <si>
     <t>Monisha Marriage</t>
   </si>
+  <si>
+    <t xml:space="preserve">Production control system </t>
+  </si>
+  <si>
+    <t>Clearinghouse Database Rewrite Project</t>
+  </si>
+  <si>
+    <t>MJA - RPA Scripts</t>
+  </si>
+  <si>
+    <t>Penna - StateWise OSOD Details</t>
+  </si>
+  <si>
+    <t>MJA - Performance issue</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -1156,7 +1165,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{91AE6805-01E8-42B9-BB81-A87FD24491E0}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1214,7 +1223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1266,7 +1275,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1460,14 +1469,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -1996,7 +2005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B3C2CE-654F-47A3-848A-F1C3D285380E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -2526,7 +2535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A08316-8619-42BE-A30C-769E3C87CF0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:G42"/>
   <sheetViews>
@@ -3357,7 +3366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56F7C24-044E-4AF2-8858-E92A656FF50B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:G24"/>
   <sheetViews>
@@ -3876,7 +3885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EAFE2D-2932-40F0-BB30-6CD08F169206}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -4501,7 +4510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4869D38B-273D-4241-BC26-467F73C0AB8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:G34"/>
   <sheetViews>
@@ -5164,7 +5173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F08FBF28-F06B-4246-BD0B-6C1F30B8D843}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:G33"/>
   <sheetViews>
@@ -5795,7 +5804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAF4F6F-69C5-42ED-95B2-39D4B37B07C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:G35"/>
   <sheetViews>
@@ -6484,7 +6493,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782E46F5-F632-462B-B685-387506737000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:G34"/>
   <sheetViews>
@@ -7101,7 +7110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19554E5-D4C4-4D27-9FF0-77A8ADFCB840}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:G35"/>
   <sheetViews>
@@ -7770,7 +7779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE4DEA5-5CF4-43CD-AE9B-E041102DADDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:G40"/>
   <sheetViews>
@@ -8561,7 +8570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5498BFB-CF10-4DEC-BC3C-383954428206}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G33"/>
   <sheetViews>
@@ -9147,7 +9156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B95366-DD82-4568-A00F-C1F7E80B8D17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9814,7 +9823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367135FF-AC3D-46EE-B8D8-CF9C3EA4E1FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
@@ -10444,7 +10453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62424371-4F6D-4F21-A67F-98DECF42B273}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
@@ -11048,7 +11057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AA7502-CEE2-486B-91E4-6175133A0590}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
@@ -11641,11 +11650,11 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B6490A-361C-43C7-B783-BC6205646082}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12177,11 +12186,11 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEAFBBF-5C3E-484D-8AE4-23D66F879A5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12253,7 +12262,9 @@
         <v>44807</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="30"/>
+      <c r="D4" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="20"/>
       <c r="G4" s="19"/>
@@ -12266,7 +12277,9 @@
         <v>44808</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="30"/>
+      <c r="D5" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="20"/>
       <c r="G5" s="19"/>
@@ -12279,7 +12292,9 @@
         <v>44809</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="30"/>
+      <c r="D6" s="30" t="s">
+        <v>278</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="20"/>
       <c r="G6" s="19"/>
@@ -12292,7 +12307,9 @@
         <v>44810</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="30"/>
+      <c r="D7" s="30" t="s">
+        <v>278</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="20"/>
       <c r="G7" s="19"/>
@@ -12305,7 +12322,9 @@
         <v>44811</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="30"/>
+      <c r="D8" s="30" t="s">
+        <v>203</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="20"/>
       <c r="G8" s="19"/>
@@ -12318,7 +12337,9 @@
         <v>44812</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="30"/>
+      <c r="D9" s="30" t="s">
+        <v>203</v>
+      </c>
       <c r="E9" s="35"/>
       <c r="F9" s="20"/>
       <c r="G9" s="19"/>
@@ -12331,7 +12352,9 @@
         <v>44813</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="30"/>
+      <c r="D10" s="30" t="s">
+        <v>52</v>
+      </c>
       <c r="E10" s="35"/>
       <c r="F10" s="20"/>
       <c r="G10" s="19"/>
@@ -12344,7 +12367,9 @@
         <v>44814</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="30"/>
+      <c r="D11" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="20"/>
       <c r="G11" s="19"/>
@@ -12357,7 +12382,9 @@
         <v>44815</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="30"/>
+      <c r="D12" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="20"/>
       <c r="G12" s="19"/>
@@ -12370,7 +12397,9 @@
         <v>44816</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="30"/>
+      <c r="D13" t="s">
+        <v>283</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="20"/>
       <c r="G13" s="19"/>
@@ -12383,7 +12412,9 @@
         <v>44817</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="30"/>
+      <c r="D14" t="s">
+        <v>283</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="20"/>
       <c r="G14" s="19"/>
@@ -12396,7 +12427,9 @@
         <v>44818</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="30"/>
+      <c r="D15" s="30" t="s">
+        <v>282</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="20"/>
       <c r="G15" s="19"/>
@@ -12409,7 +12442,9 @@
         <v>44819</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="30"/>
+      <c r="D16" s="30" t="s">
+        <v>203</v>
+      </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="19"/>
@@ -12422,7 +12457,9 @@
         <v>44820</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="30"/>
+      <c r="D17" s="30" t="s">
+        <v>286</v>
+      </c>
       <c r="E17" s="32"/>
       <c r="F17" s="20"/>
       <c r="G17" s="19"/>
@@ -12435,7 +12472,9 @@
         <v>44821</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="30"/>
+      <c r="D18" s="30" t="s">
+        <v>286</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="20"/>
       <c r="G18" s="19"/>
@@ -12448,7 +12487,9 @@
         <v>44822</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="30"/>
+      <c r="D19" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="20"/>
       <c r="G19" s="19"/>
@@ -12461,7 +12502,9 @@
         <v>44823</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="30"/>
+      <c r="D20" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="20"/>
       <c r="G20" s="19"/>
@@ -12474,7 +12517,9 @@
         <v>44824</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="30"/>
+      <c r="D21" s="30" t="s">
+        <v>286</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="20"/>
       <c r="G21" s="19"/>
@@ -12487,7 +12532,9 @@
         <v>44825</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="30"/>
+      <c r="D22" s="30" t="s">
+        <v>284</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="20"/>
       <c r="G22" s="19"/>
@@ -12500,7 +12547,9 @@
         <v>44826</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="30"/>
+      <c r="D23" s="30" t="s">
+        <v>284</v>
+      </c>
       <c r="E23" s="4"/>
       <c r="F23" s="20"/>
       <c r="G23" s="19"/>
@@ -12513,7 +12562,9 @@
         <v>44827</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="30"/>
+      <c r="D24" s="30" t="s">
+        <v>284</v>
+      </c>
       <c r="E24" s="4"/>
       <c r="F24" s="20"/>
       <c r="G24" s="19"/>
@@ -12526,7 +12577,9 @@
         <v>44828</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="30"/>
+      <c r="D25" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
       <c r="G25" s="19"/>
@@ -12539,7 +12592,9 @@
         <v>44829</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="30"/>
+      <c r="D26" s="30" t="s">
+        <v>156</v>
+      </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
       <c r="G26" s="19"/>
@@ -12552,7 +12607,9 @@
         <v>44830</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="30"/>
+      <c r="D27" s="30" t="s">
+        <v>285</v>
+      </c>
       <c r="E27" s="32"/>
       <c r="F27" s="20"/>
       <c r="G27" s="19"/>
@@ -12656,7 +12713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8342E331-5035-4324-8044-BC3C7DB72416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12820,7 +12877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B659DD37-F437-446D-94F2-76BC2ACBCC75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -13482,7 +13539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A94DFD-91B8-4857-99D0-BFDE93A240BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -14004,7 +14061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3280173E-D342-4A48-83B6-C19FA1CEB5C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -14019,7 +14076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE48016-C14F-432A-B523-39C49937726D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G90"/>
   <sheetViews>
@@ -15136,7 +15193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8384DEB-BB5E-4F46-9A0E-CF5213C24232}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G35"/>
   <sheetViews>
@@ -15782,7 +15839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBEE8AC-BA90-42E8-A496-94E7CF75A770}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G35"/>
   <sheetViews>
@@ -16351,7 +16408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6CB570-938C-47FD-8C65-D1DC01B394DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G25"/>
   <sheetViews>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="289">
   <si>
     <t>Task</t>
   </si>
@@ -913,6 +913,12 @@
   </si>
   <si>
     <t>MJA - Performance issue</t>
+  </si>
+  <si>
+    <t>MJA - Query optimization</t>
+  </si>
+  <si>
+    <t>Penna - DashBoard</t>
   </si>
 </sst>
 </file>
@@ -12187,10 +12193,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12622,7 +12628,9 @@
         <v>44831</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="30"/>
+      <c r="D28" s="30" t="s">
+        <v>287</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="20"/>
       <c r="G28" s="19"/>
@@ -12632,23 +12640,27 @@
         <v>28</v>
       </c>
       <c r="B29" s="10">
-        <v>44832</v>
+        <v>44831</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="30"/>
+      <c r="D29" t="s">
+        <v>283</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="1"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="10">
-        <v>44833</v>
+        <v>44832</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="30"/>
+      <c r="D30" t="s">
+        <v>283</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="20"/>
       <c r="G30" s="1"/>
@@ -12658,10 +12670,12 @@
         <v>30</v>
       </c>
       <c r="B31" s="10">
-        <v>44834</v>
+        <v>44833</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="30"/>
+      <c r="D31" s="30" t="s">
+        <v>287</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="20"/>
       <c r="G31" s="1"/>
@@ -12671,10 +12685,12 @@
         <v>31</v>
       </c>
       <c r="B32" s="10">
-        <v>44835</v>
+        <v>44834</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="30"/>
+      <c r="D32" s="30" t="s">
+        <v>288</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="20"/>
       <c r="G32" s="1"/>
@@ -12684,27 +12700,36 @@
       <c r="B33" s="10"/>
       <c r="C33" s="1"/>
       <c r="D33" s="30"/>
-      <c r="E33" s="32"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="20"/>
-      <c r="G33" s="19"/>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1"/>
       <c r="B34" s="10"/>
       <c r="C34" s="1"/>
       <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
+      <c r="E34" s="32"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="19"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1"/>
       <c r="B35" s="10"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="4"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="31"/>
       <c r="F35" s="20"/>
       <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="19" activeTab="24"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="19" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
@@ -32,9 +32,10 @@
     <sheet name="JUL-2022" sheetId="35" r:id="rId23"/>
     <sheet name="AUG-2022" sheetId="36" r:id="rId24"/>
     <sheet name="SEP-2022" sheetId="37" r:id="rId25"/>
-    <sheet name="Leave Details" sheetId="34" r:id="rId26"/>
+    <sheet name="OCT-2022" sheetId="38" r:id="rId26"/>
+    <sheet name="Leave Details" sheetId="34" r:id="rId27"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="295">
   <si>
     <t>Task</t>
   </si>
@@ -919,6 +920,24 @@
   </si>
   <si>
     <t>Penna - DashBoard</t>
+  </si>
+  <si>
+    <t>Penna - Scheduler</t>
+  </si>
+  <si>
+    <t>09/09/2022</t>
+  </si>
+  <si>
+    <t>SolarWinds PM Excel walk through</t>
+  </si>
+  <si>
+    <t>SolarWinds PM Excel walk through, Discussion with Japan team</t>
+  </si>
+  <si>
+    <t>MJA Image Upload Discussion</t>
+  </si>
+  <si>
+    <t>Penna MRP Print issue</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1101,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1167,6 +1186,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12195,8 +12220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12739,10 +12764,587 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44835</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44836</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44837</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44838</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44839</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44840</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44841</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44842</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44843</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44844</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44844</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44845</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7" ht="30">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44846</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44846</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44847</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44848</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44849</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44850</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44851</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44852</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44853</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>44854</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44855</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10">
+        <v>44856</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>44857</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10">
+        <v>44858</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10">
+        <v>44859</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10">
+        <v>44860</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="E29" s="32"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10">
+        <v>44861</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10">
+        <v>44862</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10">
+        <v>44863</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10">
+        <v>44864</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10">
+        <v>44865</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12886,7 +13488,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="B13" t="s">
         <v>281</v>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="19" activeTab="25"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="19" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
@@ -33,7 +33,8 @@
     <sheet name="AUG-2022" sheetId="36" r:id="rId24"/>
     <sheet name="SEP-2022" sheetId="37" r:id="rId25"/>
     <sheet name="OCT-2022" sheetId="38" r:id="rId26"/>
-    <sheet name="Leave Details" sheetId="34" r:id="rId27"/>
+    <sheet name="NOV-2022 (2)" sheetId="39" r:id="rId27"/>
+    <sheet name="Leave Details" sheetId="34" r:id="rId28"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="298">
   <si>
     <t>Task</t>
   </si>
@@ -938,6 +939,15 @@
   </si>
   <si>
     <t>Penna MRP Print issue</t>
+  </si>
+  <si>
+    <t>PRA JS Education</t>
+  </si>
+  <si>
+    <t>MJA Issue</t>
+  </si>
+  <si>
+    <t>RPA JS Education</t>
   </si>
 </sst>
 </file>
@@ -1500,7 +1510,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12766,7 +12776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -13340,6 +13350,608 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44866</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44867</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44867</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44868</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44868</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44869</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44870</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44871</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44872</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44873</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44874</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44875</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44876</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44877</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44878</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44879</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44880</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44880</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44881</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44882</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44883</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>44884</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44885</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10">
+        <v>44886</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>44887</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10">
+        <v>44888</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10">
+        <v>44889</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10">
+        <v>44890</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10">
+        <v>44891</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10">
+        <v>44892</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10">
+        <v>44893</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10">
+        <v>44894</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10">
+        <v>44895</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10">
+        <v>44896</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10">
+        <v>44897</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10">
+        <v>44898</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="19"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="299">
   <si>
     <t>Task</t>
   </si>
@@ -948,6 +948,9 @@
   </si>
   <si>
     <t>RPA JS Education</t>
+  </si>
+  <si>
+    <t>MJA Scheduler</t>
   </si>
 </sst>
 </file>
@@ -1510,7 +1513,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13351,10 +13354,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13787,7 +13790,9 @@
         <v>44889</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="37"/>
+      <c r="D28" s="37" t="s">
+        <v>237</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="20"/>
       <c r="G28" s="19"/>
@@ -13800,7 +13805,9 @@
         <v>44890</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="37"/>
+      <c r="D29" s="37" t="s">
+        <v>237</v>
+      </c>
       <c r="E29" s="4"/>
       <c r="F29" s="20"/>
       <c r="G29" s="19"/>
@@ -13813,7 +13820,9 @@
         <v>44891</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="37"/>
+      <c r="D30" s="37" t="s">
+        <v>156</v>
+      </c>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="19"/>
@@ -13826,7 +13835,9 @@
         <v>44892</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="37"/>
+      <c r="D31" s="37" t="s">
+        <v>156</v>
+      </c>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
       <c r="G31" s="19"/>
@@ -13839,7 +13850,9 @@
         <v>44893</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="26"/>
+      <c r="D32" s="37" t="s">
+        <v>237</v>
+      </c>
       <c r="E32" s="32"/>
       <c r="F32" s="20"/>
       <c r="G32" s="19"/>
@@ -13852,7 +13865,9 @@
         <v>44894</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="37"/>
+      <c r="D33" s="37" t="s">
+        <v>298</v>
+      </c>
       <c r="E33" s="4"/>
       <c r="F33" s="20"/>
       <c r="G33" s="19"/>
@@ -13865,7 +13880,9 @@
         <v>44895</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="37"/>
+      <c r="D34" s="37" t="s">
+        <v>298</v>
+      </c>
       <c r="E34" s="4"/>
       <c r="F34" s="20"/>
       <c r="G34" s="19"/>
@@ -13875,21 +13892,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="10">
-        <v>44896</v>
+        <v>44895</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="37"/>
+      <c r="D35" s="37" t="s">
+        <v>237</v>
+      </c>
       <c r="E35" s="4"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="19"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="10">
-        <v>44897</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="1"/>
       <c r="D36" s="37"/>
       <c r="E36" s="4"/>
@@ -13897,24 +13912,20 @@
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="10">
-        <v>44898</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="1"/>
       <c r="D37" s="37"/>
-      <c r="E37" s="4"/>
+      <c r="E37" s="32"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="1"/>
+      <c r="G37" s="19"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1"/>
       <c r="B38" s="10"/>
       <c r="C38" s="1"/>
       <c r="D38" s="37"/>
-      <c r="E38" s="4"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="20"/>
       <c r="G38" s="1"/>
     </row>
@@ -13922,28 +13933,10 @@
       <c r="A39" s="1"/>
       <c r="B39" s="10"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="32"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="19"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="1"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="1"/>
+      <c r="G39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="300">
   <si>
     <t>Task</t>
   </si>
@@ -951,6 +951,9 @@
   </si>
   <si>
     <t>MJA Scheduler</t>
+  </si>
+  <si>
+    <t>Cleaning House</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1516,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13356,8 +13359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13806,7 +13809,7 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="37" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="20"/>

--- a/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
+++ b/REVER_DailyTracker_R.VIJAYA KUMAR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="19" activeTab="26"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="21" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="OCT-2020" sheetId="10" r:id="rId1"/>
@@ -33,8 +33,9 @@
     <sheet name="AUG-2022" sheetId="36" r:id="rId24"/>
     <sheet name="SEP-2022" sheetId="37" r:id="rId25"/>
     <sheet name="OCT-2022" sheetId="38" r:id="rId26"/>
-    <sheet name="NOV-2022 (2)" sheetId="39" r:id="rId27"/>
-    <sheet name="Leave Details" sheetId="34" r:id="rId28"/>
+    <sheet name="NOV-2022" sheetId="39" r:id="rId27"/>
+    <sheet name="DEC-2022" sheetId="41" r:id="rId28"/>
+    <sheet name="Leave Details" sheetId="34" r:id="rId29"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1869" uniqueCount="305">
   <si>
     <t>Task</t>
   </si>
@@ -954,6 +955,21 @@
   </si>
   <si>
     <t>Cleaning House</t>
+  </si>
+  <si>
+    <t>Solarwinds</t>
+  </si>
+  <si>
+    <t>MJA Performance Issue</t>
+  </si>
+  <si>
+    <t>MJA RPA SkillSet</t>
+  </si>
+  <si>
+    <t>SolarWinds - Excel sheet Mapping Detials</t>
+  </si>
+  <si>
+    <t>MJA RPA SkillSet for user master id</t>
   </si>
 </sst>
 </file>
@@ -12236,7 +12252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -12782,7 +12798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -13359,7 +13375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -13949,10 +13965,556 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>44896</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>44897</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>44898</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>44899</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44900</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44900</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>44901</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" ht="30">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>44902</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44902</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>44903</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>44903</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="E12" s="35"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>44904</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="19"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>44905</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>44906</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>44907</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="19"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>44908</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="19"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>44909</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="19"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44910</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>44911</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="19"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>44912</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>44913</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="19"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>44914</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="19"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44915</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="19"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10">
+        <v>44916</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>44917</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="19"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10">
+        <v>44918</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10">
+        <v>44919</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10">
+        <v>44920</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10">
+        <v>44921</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10">
+        <v>44922</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10">
+        <v>44923</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10">
+        <v>44924</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10">
+        <v>44925</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10">
+        <v>44926</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
